--- a/data/final_bestfeatures_data.xlsx
+++ b/data/final_bestfeatures_data.xlsx
@@ -404,42 +404,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_251wos</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>new_feature_264wos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>new_feature_81wos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_220wos</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_264wos</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_251wos</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_81wos</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_227wos</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>new_feature_34wos</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_47wos</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_34wos</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_227wos</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_283wos</t>
+          <t>new_feature_183wos</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -449,102 +449,102 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_11mag_r</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_269mag_r</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_250mag_r</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_26mag_r</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_100mag_r</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_138mag_r</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_11mag_r</t>
+          <t>new_feature_41mag_r</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_26mag_r</t>
+          <t>new_feature_140mag_r</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_163mag_r</t>
+          <t>new_feature_268mag_r</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_116mag_r</t>
+          <t>new_feature_280mag_r</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_137mag_r</t>
+          <t>new_feature_37mag_r</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_199mag_r</t>
+          <t>new_feature_110mag_r</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_11mag_c</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_269mag_c</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_250mag_c</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>new_feature_26mag_c</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>new_feature_100mag_c</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>new_feature_138mag_c</t>
-        </is>
-      </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_163mag_c</t>
+          <t>new_feature_41mag_c</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_11mag_c</t>
+          <t>new_feature_140mag_c</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_116mag_c</t>
+          <t>new_feature_110mag_c</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_26mag_c</t>
+          <t>new_feature_268mag_c</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_199mag_c</t>
+          <t>new_feature_218mag_c</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>new_feature_134mag_c</t>
+          <t>new_feature_37mag_c</t>
         </is>
       </c>
     </row>
@@ -584,26 +584,66 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-0.0013455423</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.0010992589</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.0012939972</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.00028857126</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.0015642914</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.001648214</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.0004838754</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0011208915</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0007112252599999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.000214808</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.0013493281</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.0010986422</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.0012926181</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.00029261268</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.0015623084</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.001645535</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.00020945538</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.0004828396</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0014867855</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0007137614</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -635,91 +675,91 @@
         <v>-0.0013968546</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00010258861</v>
+        <v>8.783868e-05</v>
       </c>
       <c r="J3" t="n">
         <v>-0.0011747102</v>
       </c>
       <c r="K3" t="n">
-        <v>8.783868e-05</v>
+        <v>0.001500063</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001500063</v>
+        <v>0.00010258861</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00080705405</v>
+        <v>-4.285113e-07</v>
       </c>
       <c r="N3" t="n">
         <v>-0.00017769737</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.285113e-07</v>
+        <v>0.00080705405</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0009149484</v>
+        <v>-0.0012444088</v>
       </c>
       <c r="Q3" t="n">
         <v>-0.0016455895</v>
       </c>
       <c r="R3" t="n">
+        <v>-0.00044386004</v>
+      </c>
+      <c r="S3" t="n">
         <v>-0.0013911007</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.00019697545</v>
-      </c>
       <c r="T3" t="n">
+        <v>-0.001476854</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.000696197</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.00020097331</v>
-      </c>
       <c r="V3" t="n">
-        <v>-0.00044386004</v>
+        <v>-0.0007037835000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.001476854</v>
+        <v>0.0011734166</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0014959192</v>
+        <v>-0.0016562509</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.0002791691</v>
+        <v>0.0007478579</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.0004847927</v>
+        <v>0.0015344807</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.0007141402</v>
+        <v>0.00040529482</v>
       </c>
       <c r="AB3" t="n">
+        <v>-0.0004463986</v>
+      </c>
+      <c r="AC3" t="n">
         <v>-0.0013891477</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0.00019750507</v>
-      </c>
       <c r="AD3" t="n">
+        <v>-0.001478114</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.0006983788000000001</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0.00019929661</v>
-      </c>
       <c r="AF3" t="n">
-        <v>-0.0014955295</v>
+        <v>-0.00070445274</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.0004463986</v>
+        <v>0.0011758754</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.0002757601</v>
+        <v>0.00040379592</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.001478114</v>
+        <v>-0.0016572933</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0007165619</v>
+        <v>0.0012960247</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0006827747000000001</v>
+        <v>0.0015332892</v>
       </c>
     </row>
     <row r="4">
@@ -758,26 +798,66 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-0.0013181935</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0003243361</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.00014295515</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.0012253048</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0010301811</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.001047568</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.0007214776</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.00018738791</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0016136272</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.00027888536</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.0013205778</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0003247631</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.00013995079</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.0012237383</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0010321514</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.0010474443</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.000278706</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.0007233036999999999</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.001005285</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0016137601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -809,91 +889,91 @@
         <v>0.0012351982</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0006451801</v>
+        <v>0.0015823429</v>
       </c>
       <c r="J5" t="n">
         <v>0.0005431090000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0015823429</v>
+        <v>0.0007165644000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007165644000000001</v>
+        <v>-0.0006451801</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0007267180499999999</v>
+        <v>0.0006664616499999999</v>
       </c>
       <c r="N5" t="n">
         <v>0.00047494887</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006664616499999999</v>
+        <v>-0.0007267180499999999</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0011037878</v>
+        <v>0.00048865064</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0006535141</v>
       </c>
       <c r="R5" t="n">
+        <v>0.0004861251799999999</v>
+      </c>
+      <c r="S5" t="n">
         <v>-0.0011551921</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.0003094424</v>
-      </c>
       <c r="T5" t="n">
+        <v>-0.00051832</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.00061722525</v>
       </c>
-      <c r="U5" t="n">
-        <v>-0.0009905468</v>
-      </c>
       <c r="V5" t="n">
-        <v>0.0004861251799999999</v>
+        <v>-0.0011104284</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.00051832</v>
+        <v>0.0009030136999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0012885161</v>
+        <v>-0.0015906006</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00040165478</v>
+        <v>0.00013192986</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0009961699</v>
+        <v>0.000101675854</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00051132776</v>
+        <v>0.00072584295</v>
       </c>
       <c r="AB5" t="n">
+        <v>0.00048438375</v>
+      </c>
+      <c r="AC5" t="n">
         <v>-0.0011524017</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.00030954764</v>
-      </c>
       <c r="AD5" t="n">
+        <v>-0.000515714</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.0006160124</v>
       </c>
-      <c r="AE5" t="n">
-        <v>-0.0009880866</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0.001288787</v>
+        <v>-0.0011130129</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00048438375</v>
+        <v>0.0009015288699999998</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.00040619788</v>
+        <v>0.0007233007300000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.000515714</v>
+        <v>-0.0015880828</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0005137367</v>
+        <v>-0.00045885614</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0015569499</v>
+        <v>0.0001009958</v>
       </c>
     </row>
     <row r="6">
@@ -926,91 +1006,91 @@
         <v>0.0012571751</v>
       </c>
       <c r="I6" t="n">
-        <v>4.042975999999999e-05</v>
+        <v>-0.00040763474</v>
       </c>
       <c r="J6" t="n">
         <v>-0.00029592344</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00040763474</v>
+        <v>-0.00064824754</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00064824754</v>
+        <v>4.042975999999999e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0015202233</v>
+        <v>-0.0004551546</v>
       </c>
       <c r="N6" t="n">
         <v>-0.0011238311</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0004551546</v>
+        <v>0.0015202233</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0009480614</v>
+        <v>0.0007332257</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0011217842</v>
       </c>
       <c r="R6" t="n">
+        <v>0.0013411919</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.0007379915</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.9047582e-05</v>
-      </c>
       <c r="T6" t="n">
+        <v>-8.462615e-05</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.00095473905</v>
       </c>
-      <c r="U6" t="n">
-        <v>-0.0014208738</v>
-      </c>
       <c r="V6" t="n">
-        <v>0.0013411919</v>
+        <v>0.0009773316999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>-8.462615e-05</v>
+        <v>0.00038087537</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0008661089</v>
+        <v>-0.0013091788</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0010183045</v>
+        <v>-0.0010877285</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00040770386</v>
+        <v>0.0016119231</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0009474850999999999</v>
+        <v>0.0010290036</v>
       </c>
       <c r="AB6" t="n">
+        <v>0.0013411684</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.0007356842999999999</v>
       </c>
-      <c r="AC6" t="n">
-        <v>1.622389e-05</v>
-      </c>
       <c r="AD6" t="n">
+        <v>-8.352493000000001e-05</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.0009573958</v>
       </c>
-      <c r="AE6" t="n">
-        <v>-0.0014211087</v>
-      </c>
       <c r="AF6" t="n">
-        <v>-0.0008680779</v>
+        <v>0.000980732</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0013411684</v>
+        <v>0.00037673643</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0010189022</v>
+        <v>0.0010274416</v>
       </c>
       <c r="AI6" t="n">
-        <v>-8.352493000000001e-05</v>
+        <v>-0.0013116742</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0009490514599999999</v>
+        <v>0.0004897987000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.001300948</v>
+        <v>0.001610038</v>
       </c>
     </row>
     <row r="7">
@@ -1043,91 +1123,91 @@
         <v>0.0015270573</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009849727</v>
+        <v>-0.000113953254</v>
       </c>
       <c r="J7" t="n">
         <v>0.0013182414</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.000113953254</v>
+        <v>1.3045625e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3045625e-06</v>
+        <v>0.0009849727</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0016385996</v>
+        <v>0.0007427366999999999</v>
       </c>
       <c r="N7" t="n">
         <v>0.00018784213</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0007427366999999999</v>
+        <v>0.0016385996</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0007523836999999999</v>
+        <v>0.0007545399</v>
       </c>
       <c r="Q7" t="n">
         <v>0.001441565</v>
       </c>
       <c r="R7" t="n">
+        <v>0.00032593412</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.0008347048</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.0014898296</v>
-      </c>
       <c r="T7" t="n">
+        <v>0.00031669688</v>
+      </c>
+      <c r="U7" t="n">
         <v>-0.0014537958</v>
       </c>
-      <c r="U7" t="n">
-        <v>0.0012127362</v>
-      </c>
       <c r="V7" t="n">
-        <v>0.00032593412</v>
+        <v>0.001552661</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00031669688</v>
+        <v>0.0003796558</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0003805336</v>
+        <v>-0.0010418232</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.00028570773</v>
+        <v>-0.00033696095</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.000725831</v>
+        <v>0.0014219686</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0007251075</v>
+        <v>0.0009048988000000001</v>
       </c>
       <c r="AB7" t="n">
+        <v>0.00032831405</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0.0008374523599999999</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0.0014874303</v>
-      </c>
       <c r="AD7" t="n">
+        <v>0.00032421882</v>
+      </c>
+      <c r="AE7" t="n">
         <v>-0.0014510823</v>
       </c>
-      <c r="AE7" t="n">
-        <v>0.0012080233</v>
-      </c>
       <c r="AF7" t="n">
-        <v>-0.00038110442</v>
+        <v>0.0015526895</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00032831405</v>
+        <v>0.00037353305</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.00028632415</v>
+        <v>0.00090548</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.00032421882</v>
+        <v>-0.0010368548</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0007240407</v>
+        <v>-0.0016538439</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0002968221</v>
+        <v>0.0014193832</v>
       </c>
     </row>
     <row r="8">
@@ -1160,91 +1240,91 @@
         <v>-0.001657179</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001507095</v>
+        <v>0.0014298091</v>
       </c>
       <c r="J8" t="n">
         <v>0.0006618586</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0014298091</v>
+        <v>0.0014235034</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0014235034</v>
+        <v>0.001507095</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0010696204</v>
+        <v>0.0003231143</v>
       </c>
       <c r="N8" t="n">
         <v>-0.0013885349</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0003231143</v>
+        <v>0.0010696204</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.00084945856</v>
+        <v>0.00085629895</v>
       </c>
       <c r="Q8" t="n">
         <v>-0.0013612539</v>
       </c>
       <c r="R8" t="n">
+        <v>-0.0006628848500000001</v>
+      </c>
+      <c r="S8" t="n">
         <v>-0.0005159549</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.0004767326</v>
-      </c>
       <c r="T8" t="n">
+        <v>0.0004899133</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.0014811269</v>
       </c>
-      <c r="U8" t="n">
-        <v>0.0002180987</v>
-      </c>
       <c r="V8" t="n">
-        <v>-0.0006628848500000001</v>
+        <v>0.0016298626</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0004899133</v>
+        <v>-0.0009192159</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0012946726</v>
+        <v>-0.00055036135</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0011002528</v>
+        <v>0.0013411866</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0008231113000000001</v>
+        <v>0.0008185601299999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0005051119</v>
+        <v>-0.0008029871</v>
       </c>
       <c r="AB8" t="n">
+        <v>-0.0006621100500000001</v>
+      </c>
+      <c r="AC8" t="n">
         <v>-0.0005185637999999999</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.0004744970400000001</v>
-      </c>
       <c r="AD8" t="n">
+        <v>0.0004887317</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.001480711</v>
       </c>
-      <c r="AE8" t="n">
-        <v>0.00021733061</v>
-      </c>
       <c r="AF8" t="n">
-        <v>-0.0012939452</v>
+        <v>0.001630298</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.0006621100500000001</v>
+        <v>-0.0009147885000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0010985237</v>
+        <v>-0.000803929</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0004887317</v>
+        <v>-0.0005503775299999999</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0005071011</v>
+        <v>0.0013002221</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.0010358482</v>
+        <v>0.000814939</v>
       </c>
     </row>
     <row r="9">
@@ -1277,91 +1357,91 @@
         <v>0.00075853977</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007387408</v>
+        <v>0.0004659657</v>
       </c>
       <c r="J9" t="n">
         <v>0.0010613424</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004659657</v>
+        <v>-0.00047158415</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.00047158415</v>
+        <v>0.0007387408</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0015045735</v>
+        <v>-0.00022566147</v>
       </c>
       <c r="N9" t="n">
         <v>-0.0013462397</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.00022566147</v>
+        <v>-0.0015045735</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0010374107</v>
+        <v>-0.0013948375</v>
       </c>
       <c r="Q9" t="n">
         <v>-0.00020340775</v>
       </c>
       <c r="R9" t="n">
+        <v>0.0016170287</v>
+      </c>
+      <c r="S9" t="n">
         <v>0.00030855648</v>
       </c>
-      <c r="S9" t="n">
-        <v>-0.001393185</v>
-      </c>
       <c r="T9" t="n">
+        <v>0.0008355964</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.0009908868999999999</v>
       </c>
-      <c r="U9" t="n">
-        <v>0.0011225808</v>
-      </c>
       <c r="V9" t="n">
-        <v>0.0016170287</v>
+        <v>0.001409303</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0008355964</v>
+        <v>0.0003927382</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0004853813400000001</v>
+        <v>0.0007742555999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0007169953</v>
+        <v>-0.001638263</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0013630055</v>
+        <v>-0.0005081946</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0012805173</v>
+        <v>0.0008671436999999999</v>
       </c>
       <c r="AB9" t="n">
+        <v>0.0016206441</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0.0003077325</v>
       </c>
-      <c r="AC9" t="n">
-        <v>-0.0013931277</v>
-      </c>
       <c r="AD9" t="n">
+        <v>0.0008376621</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.0009897492999999999</v>
       </c>
-      <c r="AE9" t="n">
-        <v>0.0011299531</v>
-      </c>
       <c r="AF9" t="n">
-        <v>0.00048374274</v>
+        <v>0.0014091961</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0016206441</v>
+        <v>0.00039717296</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0007146622999999999</v>
+        <v>0.0008656549000000001</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0008376621</v>
+        <v>0.00077175355</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0012838136</v>
+        <v>-0.0008593311999999999</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.000498368</v>
+        <v>-0.0005078969000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1394,91 +1474,91 @@
         <v>0.00076444255</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0013051707</v>
+        <v>0.0007030412700000001</v>
       </c>
       <c r="J10" t="n">
         <v>-0.00036710897</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0007030412700000001</v>
+        <v>0.0015146984</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0015146984</v>
+        <v>-0.0013051707</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.00062863086</v>
+        <v>-0.0009748935699999999</v>
       </c>
       <c r="N10" t="n">
         <v>-3.8614548e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0009748935699999999</v>
+        <v>-0.00062863086</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00022470155</v>
+        <v>0.00049850316</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0004895958000000001</v>
       </c>
       <c r="R10" t="n">
+        <v>0.0014567935</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.0007573566</v>
       </c>
-      <c r="S10" t="n">
-        <v>-0.0014397558</v>
-      </c>
       <c r="T10" t="n">
+        <v>-0.00069273694</v>
+      </c>
+      <c r="U10" t="n">
         <v>-0.00029588753</v>
       </c>
-      <c r="U10" t="n">
-        <v>-0.0011164559</v>
-      </c>
       <c r="V10" t="n">
-        <v>0.0014567935</v>
+        <v>0.0008436075300000001</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.00069273694</v>
+        <v>-0.0004335315</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.00047043824</v>
+        <v>-0.00037332036</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.0011784993</v>
+        <v>2.1054268e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00056580594</v>
+        <v>-0.0004212516</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00085856015</v>
+        <v>0.0011514834</v>
       </c>
       <c r="AB10" t="n">
+        <v>0.0014547905</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0.00075561163</v>
       </c>
-      <c r="AC10" t="n">
-        <v>-0.0014376206</v>
-      </c>
       <c r="AD10" t="n">
+        <v>-0.0006915932000000001</v>
+      </c>
+      <c r="AE10" t="n">
         <v>-0.00029535903</v>
       </c>
-      <c r="AE10" t="n">
-        <v>-0.0011184319</v>
-      </c>
       <c r="AF10" t="n">
-        <v>-0.00046883262</v>
+        <v>0.0008461580000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0014547905</v>
+        <v>-0.00043272699</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.0011755207</v>
+        <v>0.0011541756</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.0006915932000000001</v>
+        <v>-0.0003749861799999999</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0008597041999999999</v>
+        <v>0.000610812</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0007038537</v>
+        <v>-0.00042279222</v>
       </c>
     </row>
     <row r="11">
@@ -1511,91 +1591,91 @@
         <v>-0.0015315381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0015393912</v>
+        <v>-0.00045873475</v>
       </c>
       <c r="J11" t="n">
         <v>-0.0012615639</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00045873475</v>
+        <v>0.0011894901</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0011894901</v>
+        <v>0.0015393912</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00023361125</v>
+        <v>0.0007899664299999999</v>
       </c>
       <c r="N11" t="n">
         <v>0.00020719809</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007899664299999999</v>
+        <v>0.00023361125</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0011695636</v>
+        <v>-0.0004886836000000001</v>
       </c>
       <c r="Q11" t="n">
         <v>-0.0014428049</v>
       </c>
       <c r="R11" t="n">
+        <v>0.0015164341</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.00041452865</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.0013011209</v>
-      </c>
       <c r="T11" t="n">
+        <v>-0.00020552658</v>
+      </c>
+      <c r="U11" t="n">
         <v>-0.0004595107</v>
       </c>
-      <c r="U11" t="n">
-        <v>0.0014587359</v>
-      </c>
       <c r="V11" t="n">
-        <v>0.0015164341</v>
+        <v>0.0013133457</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.00020552658</v>
+        <v>0.0013750636</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0013091711</v>
+        <v>0.00050745334</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0013872733</v>
+        <v>-0.0015252484</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.0004680330200000001</v>
+        <v>0.00012799336</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0012029742</v>
+        <v>-0.00034729348</v>
       </c>
       <c r="AB11" t="n">
+        <v>0.001514781</v>
+      </c>
+      <c r="AC11" t="n">
         <v>0.0004134822</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0.0013011135</v>
-      </c>
       <c r="AD11" t="n">
+        <v>-0.00020551567</v>
+      </c>
+      <c r="AE11" t="n">
         <v>-0.0004621095</v>
       </c>
-      <c r="AE11" t="n">
-        <v>0.0014575415</v>
-      </c>
       <c r="AF11" t="n">
-        <v>0.0013076921</v>
+        <v>0.001310075</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.001514781</v>
+        <v>0.0013747987</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.0013890249</v>
+        <v>-0.0003484047799999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.00020551567</v>
+        <v>0.00050803676</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0012060128</v>
+        <v>-4.4760003e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0015219057</v>
+        <v>0.00012625323</v>
       </c>
     </row>
     <row r="12">
@@ -1628,91 +1708,91 @@
         <v>-1.5636595e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0001921826</v>
+        <v>0.0012260937</v>
       </c>
       <c r="J12" t="n">
         <v>-0.0012015785</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0012260937</v>
+        <v>0.0004598037599999999</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004598037599999999</v>
+        <v>-0.0001921826</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00060852704</v>
+        <v>0.00015843859</v>
       </c>
       <c r="N12" t="n">
         <v>0.00102108</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00015843859</v>
+        <v>0.00060852704</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0012602039</v>
+        <v>-0.0008565456399999999</v>
       </c>
       <c r="Q12" t="n">
         <v>0.00036173602</v>
       </c>
       <c r="R12" t="n">
+        <v>-0.00041205127</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.00029826644</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.0008898654499999999</v>
-      </c>
       <c r="T12" t="n">
+        <v>-0.0012483133</v>
+      </c>
+      <c r="U12" t="n">
         <v>-0.0009079664</v>
       </c>
-      <c r="U12" t="n">
-        <v>0.0015359626</v>
-      </c>
       <c r="V12" t="n">
-        <v>-0.00041205127</v>
+        <v>-0.0011699287</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0012483133</v>
+        <v>-0.001362007</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0016435005</v>
+        <v>0.0005815515</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.0013883521</v>
+        <v>0.00062974135</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.00029617824</v>
+        <v>-0.0006112747</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00016786504</v>
+        <v>0.00014301096</v>
       </c>
       <c r="AB12" t="n">
+        <v>-0.00041383877</v>
+      </c>
+      <c r="AC12" t="n">
         <v>0.00030084347</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.0008906996000000001</v>
-      </c>
       <c r="AD12" t="n">
+        <v>-0.0012469987</v>
+      </c>
+      <c r="AE12" t="n">
         <v>-0.0009026553599999999</v>
       </c>
-      <c r="AE12" t="n">
-        <v>0.0015355706</v>
-      </c>
       <c r="AF12" t="n">
-        <v>-0.0016438769</v>
+        <v>-0.0011706623</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.00041383877</v>
+        <v>-0.0013603999</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.0013852677</v>
+        <v>0.0001452167</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.0012469987</v>
+        <v>0.0005790827</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.00017230368</v>
+        <v>-0.0003111064</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0012462627</v>
+        <v>-0.0006052243</v>
       </c>
     </row>
     <row r="13">
@@ -1745,91 +1825,91 @@
         <v>0.0012000283</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.00040589026</v>
+        <v>0.000118777716</v>
       </c>
       <c r="J13" t="n">
         <v>-0.0010366967</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000118777716</v>
+        <v>0.0016501287</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0016501287</v>
+        <v>-0.00040589026</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001473837</v>
+        <v>0.0013098429</v>
       </c>
       <c r="N13" t="n">
         <v>-0.0012409665</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0013098429</v>
+        <v>-0.001473837</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0013063409</v>
+        <v>0.0003044981</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.00025047152</v>
       </c>
       <c r="R13" t="n">
+        <v>-0.0013721156</v>
+      </c>
+      <c r="S13" t="n">
         <v>-0.0016033344</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.0007678040400000001</v>
-      </c>
       <c r="T13" t="n">
+        <v>0.00023602306</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.0015053715</v>
       </c>
-      <c r="U13" t="n">
-        <v>0.00029395166</v>
-      </c>
       <c r="V13" t="n">
-        <v>-0.0013721156</v>
+        <v>-0.0014556905</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00023602306</v>
+        <v>0.000543678</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.00062966335</v>
+        <v>0.0015330691</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0013172827</v>
+        <v>-0.0008579431500000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0005434112</v>
+        <v>0.001376127</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00074422034</v>
+        <v>0.0010690422</v>
       </c>
       <c r="AB13" t="n">
+        <v>-0.0013696961</v>
+      </c>
+      <c r="AC13" t="n">
         <v>-0.0016008375</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0.00076862785</v>
-      </c>
       <c r="AD13" t="n">
+        <v>0.00023426436</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0.0015102812</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0.00029335282</v>
-      </c>
       <c r="AF13" t="n">
-        <v>-0.00062913663</v>
+        <v>-0.0014541369</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.0013696961</v>
+        <v>0.0005414922</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.0013205186</v>
+        <v>0.0010656848</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.00023426436</v>
+        <v>0.0015334582</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0007429998</v>
+        <v>0.0009787468</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0005119911</v>
+        <v>0.001376324</v>
       </c>
     </row>
     <row r="14">
@@ -1862,91 +1942,91 @@
         <v>-0.00062728603</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0015828573</v>
+        <v>0.0010698799</v>
       </c>
       <c r="J14" t="n">
         <v>0.0009443470599999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0010698799</v>
+        <v>0.00023254746</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00023254746</v>
+        <v>0.0015828573</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0009125967</v>
+        <v>0.00073834526</v>
       </c>
       <c r="N14" t="n">
         <v>0.0006063506</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00073834526</v>
+        <v>-0.0009125967</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0013209858</v>
+        <v>-0.0003493275</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0016422066</v>
       </c>
       <c r="R14" t="n">
+        <v>0.0012382901</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.00032036</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.0012368052</v>
-      </c>
       <c r="T14" t="n">
+        <v>-0.0012831299</v>
+      </c>
+      <c r="U14" t="n">
         <v>-0.0014880039</v>
       </c>
-      <c r="U14" t="n">
-        <v>-0.0010523911</v>
-      </c>
       <c r="V14" t="n">
-        <v>0.0012382901</v>
+        <v>0.0011592087</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0012831299</v>
+        <v>-0.00063792785</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0010566729</v>
+        <v>0.0015101826</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0007274631599999999</v>
+        <v>2.0093419e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.0012421664</v>
+        <v>0.00047237411</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.0004561879</v>
+        <v>-0.00062990625</v>
       </c>
       <c r="AB14" t="n">
+        <v>0.0012387611</v>
+      </c>
+      <c r="AC14" t="n">
         <v>0.00031996338</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0.0012379285</v>
-      </c>
       <c r="AD14" t="n">
+        <v>-0.0012810369</v>
+      </c>
+      <c r="AE14" t="n">
         <v>-0.0014891285</v>
       </c>
-      <c r="AE14" t="n">
-        <v>-0.0010516755</v>
-      </c>
       <c r="AF14" t="n">
-        <v>0.0010531228</v>
+        <v>0.0011593513</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0012387611</v>
+        <v>-0.0006384341</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.00072939217</v>
+        <v>-0.00063282944</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0012810369</v>
+        <v>0.0015114425</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.00045682202</v>
+        <v>-0.0012383433</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.00013832415</v>
+        <v>0.0004721623</v>
       </c>
     </row>
     <row r="15">
@@ -1985,26 +2065,66 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>-0.001659485</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.0012457973</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0009535148</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.00021368501</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.0015592667</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.00054683763</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.00019791369</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3.673798e-05</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-4.941835999999999e-05</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.0014987775</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.0016571998</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.0012472953</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.00095417775</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.00021674777</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.0015580005</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.0005425287</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.0015008401</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.00019597747</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.001445106</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-4.972399999999999e-05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2036,91 +2156,91 @@
         <v>-0.0014826357</v>
       </c>
       <c r="I16" t="n">
-        <v>4.384721e-05</v>
+        <v>-0.0010237028</v>
       </c>
       <c r="J16" t="n">
         <v>-0.0016241741</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0010237028</v>
+        <v>-0.0014684041</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0014684041</v>
+        <v>4.384721e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00010600831</v>
+        <v>0.0014130204</v>
       </c>
       <c r="N16" t="n">
         <v>0.0013611945</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0014130204</v>
+        <v>0.00010600831</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0015550831</v>
+        <v>0.00027312618</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0009018557</v>
       </c>
       <c r="R16" t="n">
+        <v>0.00027391565</v>
+      </c>
+      <c r="S16" t="n">
         <v>0.0013715511</v>
       </c>
-      <c r="S16" t="n">
-        <v>-0.0012563434</v>
-      </c>
       <c r="T16" t="n">
+        <v>0.0014786165</v>
+      </c>
+      <c r="U16" t="n">
         <v>-0.00028859288</v>
       </c>
-      <c r="U16" t="n">
-        <v>-0.0006264902999999999</v>
-      </c>
       <c r="V16" t="n">
-        <v>0.00027391565</v>
+        <v>0.0010137338</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0014786165</v>
+        <v>0.0011112345</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0011163431</v>
+        <v>0.001069998</v>
       </c>
       <c r="Y16" t="n">
-        <v>-7.962510999999999e-05</v>
+        <v>0.0012812502</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0015818647</v>
+        <v>-7.576722e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.000917435</v>
+        <v>0.00013769479</v>
       </c>
       <c r="AB16" t="n">
+        <v>0.00027407098</v>
+      </c>
+      <c r="AC16" t="n">
         <v>0.0013769141</v>
       </c>
-      <c r="AC16" t="n">
-        <v>-0.0012572375</v>
-      </c>
       <c r="AD16" t="n">
+        <v>0.0014794685</v>
+      </c>
+      <c r="AE16" t="n">
         <v>-0.00028808502</v>
       </c>
-      <c r="AE16" t="n">
-        <v>-0.0006273531</v>
-      </c>
       <c r="AF16" t="n">
-        <v>-0.0011211172</v>
+        <v>0.0010137514</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.00027407098</v>
+        <v>0.0011118836</v>
       </c>
       <c r="AH16" t="n">
-        <v>-8.241328999999999e-05</v>
+        <v>0.00013868079</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0014794685</v>
+        <v>0.0010686308</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.00091788644</v>
+        <v>-0.0010195991</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0011552392</v>
+        <v>-7.491409e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2149,36 +2269,96 @@
           <t>N Janssen, W Schirm, BZ Mahon, A Caramazza</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>-5.9171532e-05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0002561137</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0016238454</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.0001055106</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0005478166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.0006991515400000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.00024797264</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0002690644</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0012428924</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0011787964</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.0002635249</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.0016442515</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.00025841317</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.00050568435</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0011995231</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0011191581</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.0002512061</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.371966399999999e-05</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0014769344</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.0014128035</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.00025982084</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.0016515809</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.00025795124</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.0005022932</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.0011970389</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.0011178728</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0014138599</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.00025759617</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.0015499465</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0014872692</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2210,91 +2390,91 @@
         <v>0.0005396313500000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0010136651</v>
+        <v>-0.0015976481</v>
       </c>
       <c r="J18" t="n">
         <v>-0.0007790628</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0015976481</v>
+        <v>-0.0005339283</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0005339283</v>
+        <v>0.0010136651</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.00017672249</v>
+        <v>0.00036206498</v>
       </c>
       <c r="N18" t="n">
         <v>7.214798000000001e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00036206498</v>
+        <v>-0.00017672249</v>
       </c>
       <c r="P18" t="n">
-        <v>0.00015655313</v>
+        <v>-0.0010074513</v>
       </c>
       <c r="Q18" t="n">
         <v>0.00067210326</v>
       </c>
       <c r="R18" t="n">
+        <v>0.0008765581300000001</v>
+      </c>
+      <c r="S18" t="n">
         <v>-0.00019272749</v>
       </c>
-      <c r="S18" t="n">
-        <v>-0.0009657931</v>
-      </c>
       <c r="T18" t="n">
+        <v>0.0014610401</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.00037605458</v>
       </c>
-      <c r="U18" t="n">
-        <v>-0.0014145316</v>
-      </c>
       <c r="V18" t="n">
-        <v>0.0008765581300000001</v>
+        <v>-0.0014491552</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0014610401</v>
+        <v>-0.0010703112</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0008106981</v>
+        <v>0.0015557478</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.00076738885</v>
+        <v>-0.0008379746000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.0011568596</v>
+        <v>6.4242986e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.00018505396</v>
+        <v>-0.00081439613</v>
       </c>
       <c r="AB18" t="n">
+        <v>0.0008822822</v>
+      </c>
+      <c r="AC18" t="n">
         <v>-0.00019267875</v>
       </c>
-      <c r="AC18" t="n">
-        <v>-0.0009689311000000001</v>
-      </c>
       <c r="AD18" t="n">
+        <v>0.0014650135</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.0003769937999999999</v>
       </c>
-      <c r="AE18" t="n">
-        <v>-0.0014132196</v>
-      </c>
       <c r="AF18" t="n">
-        <v>0.00080816715</v>
+        <v>-0.001450921</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0008822822</v>
+        <v>-0.0010757467</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0007644110000000001</v>
+        <v>-0.0008143075</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0014650135</v>
+        <v>0.0015595285</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.00018735077</v>
+        <v>0.0014282161</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0016407658</v>
+        <v>5.6145595e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2327,91 +2507,91 @@
         <v>0.0010042051</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8882343e-06</v>
+        <v>-0.0015515974</v>
       </c>
       <c r="J19" t="n">
         <v>0.0007275284</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0015515974</v>
+        <v>-0.00047205135</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.00047205135</v>
+        <v>4.8882343e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00044812556</v>
+        <v>-6.305282e-05</v>
       </c>
       <c r="N19" t="n">
         <v>0.0011374141</v>
       </c>
       <c r="O19" t="n">
-        <v>-6.305282e-05</v>
+        <v>0.00044812556</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0016591257</v>
+        <v>0.0011618194</v>
       </c>
       <c r="Q19" t="n">
         <v>-0.00144549</v>
       </c>
       <c r="R19" t="n">
+        <v>-0.0014039521</v>
+      </c>
+      <c r="S19" t="n">
         <v>-0.0009690027000000001</v>
       </c>
-      <c r="S19" t="n">
-        <v>-0.0015680091</v>
-      </c>
       <c r="T19" t="n">
+        <v>-0.00068754057</v>
+      </c>
+      <c r="U19" t="n">
         <v>-0.0007147633</v>
       </c>
-      <c r="U19" t="n">
-        <v>0.0006860295</v>
-      </c>
       <c r="V19" t="n">
-        <v>-0.0014039521</v>
+        <v>-0.0010533477</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.00068754057</v>
+        <v>-9.729347e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0010776127</v>
+        <v>-0.00059531315</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.0010729103</v>
+        <v>-0.00016185416</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.0003934337</v>
+        <v>-0.0009767364999999999</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.0002477077</v>
+        <v>0.0012281261</v>
       </c>
       <c r="AB19" t="n">
+        <v>-0.0014095791</v>
+      </c>
+      <c r="AC19" t="n">
         <v>-0.0009665272</v>
       </c>
-      <c r="AC19" t="n">
-        <v>-0.0015641628</v>
-      </c>
       <c r="AD19" t="n">
+        <v>-0.0006784624</v>
+      </c>
+      <c r="AE19" t="n">
         <v>-0.0007193935000000001</v>
       </c>
-      <c r="AE19" t="n">
-        <v>0.0006804232000000001</v>
-      </c>
       <c r="AF19" t="n">
-        <v>0.0010892655</v>
+        <v>-0.0010471569</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.0014095791</v>
+        <v>-9.893280399999999e-05</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.0010820471</v>
+        <v>0.0012254856</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.0006784624</v>
+        <v>-0.0005945832000000001</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.0002486527</v>
+        <v>-0.00021955543</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.00014253096</v>
+        <v>-0.000982199</v>
       </c>
     </row>
     <row r="20">
@@ -2444,91 +2624,91 @@
         <v>0.00043138865</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.00082130113</v>
+        <v>0.0012815353</v>
       </c>
       <c r="J20" t="n">
         <v>-0.00061435316</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0012815353</v>
+        <v>-0.0013776937</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0013776937</v>
+        <v>-0.00082130113</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0013806804</v>
+        <v>0.00041898727</v>
       </c>
       <c r="N20" t="n">
         <v>-0.0012314989</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00041898727</v>
+        <v>-0.0013806804</v>
       </c>
       <c r="P20" t="n">
-        <v>-8.757935999999999e-05</v>
+        <v>0.0016082323</v>
       </c>
       <c r="Q20" t="n">
         <v>-0.0012932962</v>
       </c>
       <c r="R20" t="n">
+        <v>-0.0010141967</v>
+      </c>
+      <c r="S20" t="n">
         <v>9.55972e-05</v>
       </c>
-      <c r="S20" t="n">
-        <v>-0.0015194155</v>
-      </c>
       <c r="T20" t="n">
+        <v>0.0008508061300000001</v>
+      </c>
+      <c r="U20" t="n">
         <v>-0.001361207</v>
       </c>
-      <c r="U20" t="n">
-        <v>9.287104999999999e-05</v>
-      </c>
       <c r="V20" t="n">
-        <v>-0.0010141967</v>
+        <v>0.001350158</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0008508061300000001</v>
+        <v>-0.00012528639</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.0015561513</v>
+        <v>0.00018434654</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.0015915158</v>
+        <v>-0.00084512867</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.00038013235</v>
+        <v>-0.00029502035</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0015545121</v>
+        <v>0.0015417245</v>
       </c>
       <c r="AB20" t="n">
+        <v>-0.0010127083</v>
+      </c>
+      <c r="AC20" t="n">
         <v>9.661315999999999e-05</v>
       </c>
-      <c r="AC20" t="n">
-        <v>-0.0015217708</v>
-      </c>
       <c r="AD20" t="n">
+        <v>0.0008476056</v>
+      </c>
+      <c r="AE20" t="n">
         <v>-0.0013590597</v>
       </c>
-      <c r="AE20" t="n">
-        <v>9.504688000000001e-05</v>
-      </c>
       <c r="AF20" t="n">
-        <v>-0.0015599994</v>
+        <v>0.0013541885</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.0010127083</v>
+        <v>-0.00012812285</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.0015932925</v>
+        <v>0.0015417128</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.0008476056</v>
+        <v>0.00018305135</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0015548905</v>
+        <v>0.0007452016999999999</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.0007387592299999999</v>
+        <v>-0.0003000199</v>
       </c>
     </row>
     <row r="21">
@@ -2561,91 +2741,91 @@
         <v>0.0008331848</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.00010334499</v>
+        <v>-0.0007828354</v>
       </c>
       <c r="J21" t="n">
         <v>0.0009925892</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0007828354</v>
+        <v>-0.0005442172400000001</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0005442172400000001</v>
+        <v>-0.00010334499</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0013796162</v>
+        <v>0.0011128559</v>
       </c>
       <c r="N21" t="n">
         <v>0.0010029366</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0011128559</v>
+        <v>0.0013796162</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001205408</v>
+        <v>-0.00014365338</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0002018817</v>
       </c>
       <c r="R21" t="n">
+        <v>0.0005288654</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.8066556e-05</v>
       </c>
-      <c r="S21" t="n">
-        <v>0.00026395993</v>
-      </c>
       <c r="T21" t="n">
+        <v>-0.0013168027</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.0006355621</v>
       </c>
-      <c r="U21" t="n">
-        <v>0.0015905268</v>
-      </c>
       <c r="V21" t="n">
-        <v>0.0005288654</v>
+        <v>0.0007541885000000001</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.0013168027</v>
+        <v>0.0016190131</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.00044299863</v>
+        <v>0.00015019701</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0013699125</v>
+        <v>-0.00068777765</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0014854065</v>
+        <v>-0.0010497064</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0003261905</v>
+        <v>0.0012195191</v>
       </c>
       <c r="AB21" t="n">
+        <v>0.0005322066</v>
+      </c>
+      <c r="AC21" t="n">
         <v>1.5504143e-05</v>
       </c>
-      <c r="AC21" t="n">
-        <v>0.00025965308</v>
-      </c>
       <c r="AD21" t="n">
+        <v>-0.0013186933</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0.0006371574</v>
       </c>
-      <c r="AE21" t="n">
-        <v>0.0015891431</v>
-      </c>
       <c r="AF21" t="n">
-        <v>-0.0004399196</v>
+        <v>0.0007516102000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0005322066</v>
+        <v>0.0016147887</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0013700618</v>
+        <v>0.00121974</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.0013186933</v>
+        <v>0.00015183105</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.00032130932</v>
+        <v>-0.0016304662</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.0006685838</v>
+        <v>-0.0010503853</v>
       </c>
     </row>
     <row r="22">
@@ -2678,91 +2858,91 @@
         <v>0.0010338274</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.001597028</v>
+        <v>0.0009381908</v>
       </c>
       <c r="J22" t="n">
         <v>-0.001652607</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0009381908</v>
+        <v>-0.0010902839</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0010902839</v>
+        <v>-0.001597028</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0007041469</v>
+        <v>0.0011207047</v>
       </c>
       <c r="N22" t="n">
         <v>-0.0013397167</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0011207047</v>
+        <v>-0.0007041469</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0005853244000000001</v>
+        <v>-0.001506625</v>
       </c>
       <c r="Q22" t="n">
         <v>4.8404403e-05</v>
       </c>
       <c r="R22" t="n">
+        <v>-0.001528883</v>
+      </c>
+      <c r="S22" t="n">
         <v>-0.0004449894</v>
       </c>
-      <c r="S22" t="n">
-        <v>0.0011483943</v>
-      </c>
       <c r="T22" t="n">
+        <v>-0.0006909532000000001</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.00015351457</v>
       </c>
-      <c r="U22" t="n">
-        <v>0.00089390186</v>
-      </c>
       <c r="V22" t="n">
-        <v>-0.001528883</v>
+        <v>-0.0010701913</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.0006909532000000001</v>
+        <v>-2.9894833e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>-8.282597999999999e-05</v>
+        <v>0.0006129344</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0010796466</v>
+        <v>0.0007831715</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0009124373300000001</v>
+        <v>0.001007282</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.0014460237</v>
+        <v>0.0009709553999999999</v>
       </c>
       <c r="AB22" t="n">
+        <v>-0.0015304134</v>
+      </c>
+      <c r="AC22" t="n">
         <v>-0.0004410702</v>
       </c>
-      <c r="AC22" t="n">
-        <v>0.0011449116</v>
-      </c>
       <c r="AD22" t="n">
+        <v>-0.0006907913000000001</v>
+      </c>
+      <c r="AE22" t="n">
         <v>0.00015196498</v>
       </c>
-      <c r="AE22" t="n">
-        <v>0.0008930088000000001</v>
-      </c>
       <c r="AF22" t="n">
-        <v>-8.773101e-05</v>
+        <v>-0.0010683299</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.0015304134</v>
+        <v>-2.9077852e-05</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.0010769255</v>
+        <v>0.0009720092999999999</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.0006907913000000001</v>
+        <v>0.0006134277</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.0014467122</v>
+        <v>-7.1825845e-05</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.0013301411</v>
+        <v>0.0010092449</v>
       </c>
     </row>
     <row r="23">
@@ -2795,91 +2975,91 @@
         <v>0.0007253329400000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0016159262</v>
+        <v>0.000866028</v>
       </c>
       <c r="J23" t="n">
         <v>0.00083341985</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000866028</v>
+        <v>-4.754289000000001e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.754289000000001e-05</v>
+        <v>0.0016159262</v>
       </c>
       <c r="M23" t="n">
-        <v>4.9745763e-06</v>
+        <v>0.0015465565</v>
       </c>
       <c r="N23" t="n">
         <v>0.0004053856</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0015465565</v>
+        <v>4.9745763e-06</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0014748743</v>
+        <v>0.0004859396</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.001230943</v>
       </c>
       <c r="R23" t="n">
+        <v>-0.000883601</v>
+      </c>
+      <c r="S23" t="n">
         <v>0.00018807173</v>
       </c>
-      <c r="S23" t="n">
-        <v>-0.0016249273</v>
-      </c>
       <c r="T23" t="n">
+        <v>0.001094096</v>
+      </c>
+      <c r="U23" t="n">
         <v>-0.0002828278</v>
       </c>
-      <c r="U23" t="n">
-        <v>6.7090914e-05</v>
-      </c>
       <c r="V23" t="n">
-        <v>-0.000883601</v>
+        <v>-0.0008709988000000001</v>
       </c>
       <c r="W23" t="n">
-        <v>0.001094096</v>
+        <v>-0.0011300348</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00090553035</v>
+        <v>0.0009403006</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.0011218656</v>
+        <v>-1.7062632e-05</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.00082106324</v>
+        <v>-0.0014355573</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0015122797</v>
+        <v>0.0014054155</v>
       </c>
       <c r="AB23" t="n">
+        <v>-0.0008844676</v>
+      </c>
+      <c r="AC23" t="n">
         <v>0.00018646184</v>
       </c>
-      <c r="AC23" t="n">
-        <v>-0.0016238507</v>
-      </c>
       <c r="AD23" t="n">
+        <v>0.0010909581</v>
+      </c>
+      <c r="AE23" t="n">
         <v>-0.00028722952</v>
       </c>
-      <c r="AE23" t="n">
-        <v>6.595930999999999e-05</v>
-      </c>
       <c r="AF23" t="n">
-        <v>0.0009027445</v>
+        <v>-0.0008677826</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.0008844676</v>
+        <v>-0.001129281</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.0011213587</v>
+        <v>0.0014095851</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.0010909581</v>
+        <v>0.0009350617999999999</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0015119838</v>
+        <v>-0.0011490536</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.0006120445999999999</v>
+        <v>-0.0014370605</v>
       </c>
     </row>
     <row r="24">
@@ -2908,36 +3088,96 @@
           <t>CR Cox, J Arndt, T Pyszczynski, J Greenberg, A Abdollahi, S Solomon</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>0.001532877</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0010244185</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0003226957</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0006793401600000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.0007517455999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.00037460256</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.0011140679</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.0007565291000000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.0011003853</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.0011476411</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.0004928345</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0004915529</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.0012638139</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0005134853</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.0015346694</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.00022935492</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.0009798096999999999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0012079179</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.0014089666</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.0008947667699999999</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.0004932061</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0004906333</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.0012654841</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.0005137643</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.0015317466</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.00023052482</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-0.00089405343</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.0009779317999999999</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.0014103096</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.0014120797</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2969,91 +3209,91 @@
         <v>-0.0012420021</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0002622549</v>
+        <v>0.0016459384</v>
       </c>
       <c r="J25" t="n">
         <v>0.0015467497</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0016459384</v>
+        <v>0.00028466876</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00028466876</v>
+        <v>-0.0002622549</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0007412499400000001</v>
+        <v>-0.0012662582</v>
       </c>
       <c r="N25" t="n">
         <v>-0.0012332137</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0012662582</v>
+        <v>0.0007412499400000001</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.00044168593</v>
+        <v>-0.0015278363</v>
       </c>
       <c r="Q25" t="n">
         <v>-0.0014100047</v>
       </c>
       <c r="R25" t="n">
+        <v>0.0013322232</v>
+      </c>
+      <c r="S25" t="n">
         <v>-0.0005277715</v>
       </c>
-      <c r="S25" t="n">
-        <v>0.0015835644</v>
-      </c>
       <c r="T25" t="n">
+        <v>-0.0003707785</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.0016050381</v>
       </c>
-      <c r="U25" t="n">
-        <v>5.5559445e-05</v>
-      </c>
       <c r="V25" t="n">
-        <v>0.0013322232</v>
+        <v>0.0012674561</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0003707785</v>
+        <v>-0.0008685325</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0002940451</v>
+        <v>0.00065329444</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0006602636999999999</v>
+        <v>-0.00039657965</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.0012109376</v>
+        <v>0.0006827532000000001</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.001201431</v>
+        <v>0.0007825200999999999</v>
       </c>
       <c r="AB25" t="n">
+        <v>0.001334806</v>
+      </c>
+      <c r="AC25" t="n">
         <v>-0.00052766356</v>
       </c>
-      <c r="AC25" t="n">
-        <v>0.0015842435</v>
-      </c>
       <c r="AD25" t="n">
+        <v>-0.0003721212</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.0016052374</v>
       </c>
-      <c r="AE25" t="n">
-        <v>5.4391017e-05</v>
-      </c>
       <c r="AF25" t="n">
-        <v>0.00029429147</v>
+        <v>0.001267533</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.001334806</v>
+        <v>-0.00086854125</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.00066071603</v>
+        <v>0.00078261585</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.0003721212</v>
+        <v>0.0006502237500000001</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.0011986066</v>
+        <v>-0.000954605</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.0012959893</v>
+        <v>0.0006844783</v>
       </c>
     </row>
     <row r="26">
@@ -3086,91 +3326,91 @@
         <v>0.0003066839</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002608043399999999</v>
+        <v>0.00077267067</v>
       </c>
       <c r="J26" t="n">
         <v>0.00071676174</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00077267067</v>
+        <v>2.7506636e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.7506636e-05</v>
+        <v>0.0002608043399999999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000811161</v>
+        <v>0.0013479639</v>
       </c>
       <c r="N26" t="n">
         <v>0.0005299562</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0013479639</v>
+        <v>0.000811161</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.00063927466</v>
+        <v>0.0010217534</v>
       </c>
       <c r="Q26" t="n">
         <v>-0.0005752849400000001</v>
       </c>
       <c r="R26" t="n">
+        <v>-0.0008699738000000001</v>
+      </c>
+      <c r="S26" t="n">
         <v>-0.0009536907000000001</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.0014036228</v>
-      </c>
       <c r="T26" t="n">
+        <v>-0.0014704403</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.00024911997</v>
       </c>
-      <c r="U26" t="n">
-        <v>0.0011718143</v>
-      </c>
       <c r="V26" t="n">
-        <v>-0.0008699738000000001</v>
+        <v>0.0016534554</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.0014704403</v>
+        <v>-0.00050471927</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.0015290071</v>
+        <v>-0.00041732017</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.0003765355</v>
+        <v>0.0005855001999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.00052486965</v>
+        <v>-0.00054824713</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.00028683105</v>
+        <v>0.0013056897</v>
       </c>
       <c r="AB26" t="n">
+        <v>-0.00086962903</v>
+      </c>
+      <c r="AC26" t="n">
         <v>-0.0009536847</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0.001406332</v>
-      </c>
       <c r="AD26" t="n">
+        <v>-0.0014726545</v>
+      </c>
+      <c r="AE26" t="n">
         <v>0.0002518555</v>
       </c>
-      <c r="AE26" t="n">
-        <v>0.0011767434</v>
-      </c>
       <c r="AF26" t="n">
-        <v>-0.0015295281</v>
+        <v>0.0016519029</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.00086962903</v>
+        <v>-0.00050177675</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.0003717286</v>
+        <v>0.0013017198</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.0014726545</v>
+        <v>-0.00041672573</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.00028477947</v>
+        <v>0.0009020321</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.0009219096</v>
+        <v>-0.0005467277</v>
       </c>
     </row>
     <row r="27">
@@ -3203,91 +3443,91 @@
         <v>-0.0009921183000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0016335621</v>
+        <v>-0.0014631939</v>
       </c>
       <c r="J27" t="n">
         <v>-0.0014539232</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0014631939</v>
+        <v>-0.00012567308</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.00012567308</v>
+        <v>-0.0016335621</v>
       </c>
       <c r="M27" t="n">
-        <v>-6.598439e-05</v>
+        <v>0.0011349765</v>
       </c>
       <c r="N27" t="n">
         <v>0.0007583360000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0011349765</v>
+        <v>-6.598439e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.0007098427</v>
+        <v>0.00067915005</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.0015571081</v>
       </c>
       <c r="R27" t="n">
+        <v>0.00017761461</v>
+      </c>
+      <c r="S27" t="n">
         <v>-0.0013570271</v>
       </c>
-      <c r="S27" t="n">
-        <v>0.0011521678</v>
-      </c>
       <c r="T27" t="n">
+        <v>0.0010221332</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.0005559276</v>
       </c>
-      <c r="U27" t="n">
-        <v>-0.00025560177</v>
-      </c>
       <c r="V27" t="n">
-        <v>0.00017761461</v>
+        <v>0.0010506705</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0010221332</v>
+        <v>0.00033995538</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0006547095</v>
+        <v>-0.00069010555</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.00019197447</v>
+        <v>0.00046678993</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0007551483</v>
+        <v>-5.679160299999999e-05</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0009325236</v>
+        <v>0.00015126985</v>
       </c>
       <c r="AB27" t="n">
+        <v>0.00017907473</v>
+      </c>
+      <c r="AC27" t="n">
         <v>-0.0013576531</v>
       </c>
-      <c r="AC27" t="n">
-        <v>0.0011504861</v>
-      </c>
       <c r="AD27" t="n">
+        <v>0.0010190273</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0.0005572934</v>
       </c>
-      <c r="AE27" t="n">
-        <v>-0.00025407324</v>
-      </c>
       <c r="AF27" t="n">
-        <v>-0.0006536296</v>
+        <v>0.0010501039</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.00017907473</v>
+        <v>0.00033941664</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.00019164788</v>
+        <v>0.00015108567</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.0010190273</v>
+        <v>-0.00068897364</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.0009336556</v>
+        <v>-0.0013362053</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.0013659872</v>
+        <v>-5.5649525e-05</v>
       </c>
     </row>
     <row r="28">
@@ -3320,91 +3560,91 @@
         <v>-0.00025246385</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.001194081</v>
+        <v>-0.00050780707</v>
       </c>
       <c r="J28" t="n">
         <v>-0.001005893</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.00050780707</v>
+        <v>0.0005175893</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0005175893</v>
+        <v>-0.001194081</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0011074042</v>
+        <v>-0.00091999257</v>
       </c>
       <c r="N28" t="n">
         <v>0.0008175917299999999</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.00091999257</v>
+        <v>-0.0011074042</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0006724733</v>
+        <v>-0.0006685927</v>
       </c>
       <c r="Q28" t="n">
         <v>-0.00060994294</v>
       </c>
       <c r="R28" t="n">
+        <v>2.1220958e-05</v>
+      </c>
+      <c r="S28" t="n">
         <v>-0.0010476621</v>
       </c>
-      <c r="S28" t="n">
-        <v>0.0011369821</v>
-      </c>
       <c r="T28" t="n">
+        <v>-0.0006107343</v>
+      </c>
+      <c r="U28" t="n">
         <v>-0.00061305077</v>
       </c>
-      <c r="U28" t="n">
-        <v>0.0014364442</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.1220958e-05</v>
+        <v>0.0007195166</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.0006107343</v>
+        <v>0.00032758826</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0002821998</v>
+        <v>-0.00080844155</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.0014880105</v>
+        <v>0.0012537271</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.0007899939699999999</v>
+        <v>-0.0008564355000000001</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0012346669</v>
+        <v>0.001323404</v>
       </c>
       <c r="AB28" t="n">
+        <v>1.897827e-05</v>
+      </c>
+      <c r="AC28" t="n">
         <v>-0.0010468565</v>
       </c>
-      <c r="AC28" t="n">
-        <v>0.0011377129</v>
-      </c>
       <c r="AD28" t="n">
+        <v>-0.000613678</v>
+      </c>
+      <c r="AE28" t="n">
         <v>-0.0006140523999999999</v>
       </c>
-      <c r="AE28" t="n">
-        <v>0.0014373795</v>
-      </c>
       <c r="AF28" t="n">
-        <v>0.00027901662</v>
+        <v>0.0007190022</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.897827e-05</v>
+        <v>0.00032679085</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.001487662</v>
+        <v>0.0013229089</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.000613678</v>
+        <v>-0.0008074826</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.0012344413</v>
+        <v>-0.0006692775</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.0005020246</v>
+        <v>-0.000853428</v>
       </c>
     </row>
     <row r="29">
@@ -3433,36 +3673,96 @@
           <t>H Ersner-Hershfield, JA Mikels, SJ Sullivan, LL Carstensen</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.00033168023</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.00075372146</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.0007753369</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0005072747599999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0012180815</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0016361669</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.001513156</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.00058096</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.00046537275</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0011751476</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.0010228876</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.00013957606</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.8389035e-05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.0004239848</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.0013743317</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-0.0005465047</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.0012523826</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0012361946</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.00088481884</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.0015109694</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.0010233325</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.0001397076</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.80488e-05</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.0004252209</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>-0.0013759622</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.00054407684</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.0015120258</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>-0.0012521166</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-0.0015761605</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.0008844103</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3494,91 +3794,91 @@
         <v>0.00015133823</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00014625954</v>
+        <v>-0.00034690872</v>
       </c>
       <c r="J30" t="n">
         <v>-0.0010625154</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.00034690872</v>
+        <v>-0.0004242926</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0004242926</v>
+        <v>0.00014625954</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0005391106</v>
+        <v>-0.0014341426</v>
       </c>
       <c r="N30" t="n">
         <v>-0.0012070924</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.0014341426</v>
+        <v>-0.0005391106</v>
       </c>
       <c r="P30" t="n">
-        <v>0.001015526</v>
+        <v>-0.00035817482</v>
       </c>
       <c r="Q30" t="n">
         <v>-0.00040481656</v>
       </c>
       <c r="R30" t="n">
+        <v>-0.0007806168</v>
+      </c>
+      <c r="S30" t="n">
         <v>-0.0014807876</v>
       </c>
-      <c r="S30" t="n">
-        <v>-0.00017089973</v>
-      </c>
       <c r="T30" t="n">
+        <v>-0.0009233408500000001</v>
+      </c>
+      <c r="U30" t="n">
         <v>-0.00037680284</v>
       </c>
-      <c r="U30" t="n">
-        <v>0.0010359178</v>
-      </c>
       <c r="V30" t="n">
-        <v>-0.0007806168</v>
+        <v>0.0011096371</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.0009233408500000001</v>
+        <v>-0.0011501428</v>
       </c>
       <c r="X30" t="n">
-        <v>0.00053204776</v>
+        <v>0.0006955127499999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.00024852672</v>
+        <v>0.001085226</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0007272563</v>
+        <v>0.00092580507</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0005332519</v>
+        <v>-0.0002660902</v>
       </c>
       <c r="AB30" t="n">
+        <v>-0.0007770228999999999</v>
+      </c>
+      <c r="AC30" t="n">
         <v>-0.0014816565</v>
       </c>
-      <c r="AC30" t="n">
-        <v>-0.00017420355</v>
-      </c>
       <c r="AD30" t="n">
+        <v>-0.0009211731399999999</v>
+      </c>
+      <c r="AE30" t="n">
         <v>-0.00037497832</v>
       </c>
-      <c r="AE30" t="n">
-        <v>0.0010344067</v>
-      </c>
       <c r="AF30" t="n">
-        <v>0.0005317793700000001</v>
+        <v>0.0011106478</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.0007770228999999999</v>
+        <v>-0.0011483254</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.0002477836</v>
+        <v>-0.0002693223</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.0009211731399999999</v>
+        <v>0.00069523527</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.0005311444999999999</v>
+        <v>0.00085651054</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.001367067</v>
+        <v>0.0009218714</v>
       </c>
     </row>
     <row r="31">
@@ -3617,26 +3917,66 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>-0.0008694763000000001</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.00035017214</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.0009311816</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0011492302</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.0011558378</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0009211476400000001</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0016299078</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.00011931552</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.00034609844</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.00023725347</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.0008684075</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.00034780928</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.0009354648599999999</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.0011502977</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.001157527</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.0009207425</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.000238345</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.0016298646</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.00024884503</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.00034846767</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3668,91 +4008,91 @@
         <v>0.0011975641</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.0011438174</v>
+        <v>0.00029512477</v>
       </c>
       <c r="J32" t="n">
         <v>-0.0011221383</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00029512477</v>
+        <v>5.865946e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>5.865946e-05</v>
+        <v>-0.0011438174</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0013290808</v>
+        <v>-0.00043702417</v>
       </c>
       <c r="N32" t="n">
         <v>0.00063414115</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.00043702417</v>
+        <v>0.0013290808</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.0016032303</v>
+        <v>0.0016242862</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0015530686</v>
       </c>
       <c r="R32" t="n">
+        <v>-0.0011117292</v>
+      </c>
+      <c r="S32" t="n">
         <v>-0.001164006</v>
       </c>
-      <c r="S32" t="n">
-        <v>-0.00018815915</v>
-      </c>
       <c r="T32" t="n">
+        <v>0.0010538055</v>
+      </c>
+      <c r="U32" t="n">
         <v>0.0008956122300000001</v>
       </c>
-      <c r="U32" t="n">
-        <v>-0.00107473</v>
-      </c>
       <c r="V32" t="n">
-        <v>-0.0011117292</v>
+        <v>-0.00029077835</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0010538055</v>
+        <v>0.0001379042</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.0013837079</v>
+        <v>0.0014771131</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.00038467752</v>
+        <v>0.0014429465</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0014005641</v>
+        <v>-0.0014594765</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.00013158699</v>
+        <v>0.0013038975</v>
       </c>
       <c r="AB32" t="n">
+        <v>-0.0011131408</v>
+      </c>
+      <c r="AC32" t="n">
         <v>-0.0011645008</v>
       </c>
-      <c r="AC32" t="n">
-        <v>-0.00018957046</v>
-      </c>
       <c r="AD32" t="n">
+        <v>0.0010510738</v>
+      </c>
+      <c r="AE32" t="n">
         <v>0.0008968805</v>
       </c>
-      <c r="AE32" t="n">
-        <v>-0.0010751348</v>
-      </c>
       <c r="AF32" t="n">
-        <v>-0.0013855157</v>
+        <v>-0.0002886955</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.0011131408</v>
+        <v>0.00014047841</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.0003850576799999999</v>
+        <v>0.0013006342</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.0010510738</v>
+        <v>0.0014805819</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.00013694091</v>
+        <v>0.0006124505</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.0003117239</v>
+        <v>-0.001462217</v>
       </c>
     </row>
     <row r="33">
@@ -3785,91 +4125,91 @@
         <v>0.0006890824300000001</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0010998078</v>
+        <v>0.0010843104</v>
       </c>
       <c r="J33" t="n">
         <v>-0.00022216393</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0010843104</v>
+        <v>0.0014752109</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0014752109</v>
+        <v>-0.0010998078</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0011265393</v>
+        <v>0.0005698844</v>
       </c>
       <c r="N33" t="n">
         <v>-0.00054619665</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0005698844</v>
+        <v>0.0011265393</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.0008196005</v>
+        <v>0.0009769974</v>
       </c>
       <c r="Q33" t="n">
         <v>-0.0006983858999999999</v>
       </c>
       <c r="R33" t="n">
+        <v>0.0013828411</v>
+      </c>
+      <c r="S33" t="n">
         <v>-6.136460999999999e-05</v>
       </c>
-      <c r="S33" t="n">
-        <v>-0.00082439254</v>
-      </c>
       <c r="T33" t="n">
+        <v>0.00132811</v>
+      </c>
+      <c r="U33" t="n">
         <v>0.0014247085</v>
       </c>
-      <c r="U33" t="n">
-        <v>-0.0013844967</v>
-      </c>
       <c r="V33" t="n">
-        <v>0.0013828411</v>
+        <v>0.0009824038</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00132811</v>
+        <v>-0.0013695128</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0007000308</v>
+        <v>-0.0012084453</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.0004307408799999999</v>
+        <v>-0.0012704637</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.00072390056</v>
+        <v>0.0012957274</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0005879291</v>
+        <v>0.0006446242</v>
       </c>
       <c r="AB33" t="n">
+        <v>0.0013841054</v>
+      </c>
+      <c r="AC33" t="n">
         <v>-6.281143e-05</v>
       </c>
-      <c r="AC33" t="n">
-        <v>-0.0008226422</v>
-      </c>
       <c r="AD33" t="n">
+        <v>0.0013280155</v>
+      </c>
+      <c r="AE33" t="n">
         <v>0.0014229235</v>
       </c>
-      <c r="AE33" t="n">
-        <v>-0.0013849977</v>
-      </c>
       <c r="AF33" t="n">
-        <v>0.0007027166</v>
+        <v>0.0009828180000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0013841054</v>
+        <v>-0.0013686803</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.0004298466</v>
+        <v>0.00064445095</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.0013280155</v>
+        <v>-0.0012074319</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.0005881764</v>
+        <v>0.0014721811</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.0013925341</v>
+        <v>0.0012939719</v>
       </c>
     </row>
     <row r="34">
@@ -3902,91 +4242,91 @@
         <v>-0.0015076245</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0012405006</v>
+        <v>-0.00034664263</v>
       </c>
       <c r="J34" t="n">
         <v>-0.0013647163</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.00034664263</v>
+        <v>0.0014388488</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0014388488</v>
+        <v>-0.0012405006</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0012994084</v>
+        <v>0.00153867</v>
       </c>
       <c r="N34" t="n">
         <v>-0.0008010699</v>
       </c>
       <c r="O34" t="n">
-        <v>0.00153867</v>
+        <v>0.0012994084</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0014058776</v>
+        <v>0.0015538764</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.00069424976</v>
       </c>
       <c r="R34" t="n">
+        <v>-0.0005888743</v>
+      </c>
+      <c r="S34" t="n">
         <v>0.0015187004</v>
       </c>
-      <c r="S34" t="n">
-        <v>-0.0008898748</v>
-      </c>
       <c r="T34" t="n">
+        <v>0.0010210071</v>
+      </c>
+      <c r="U34" t="n">
         <v>0.00095622166</v>
       </c>
-      <c r="U34" t="n">
-        <v>-0.0015374519</v>
-      </c>
       <c r="V34" t="n">
-        <v>-0.0005888743</v>
+        <v>-7.75339e-05</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0010210071</v>
+        <v>0.0006366793499999999</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0005297811599999999</v>
+        <v>-0.0008490330699999998</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.001313546</v>
+        <v>0.0013645493</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.00083111256</v>
+        <v>0.00013922222</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.000609904</v>
+        <v>-0.0008336697</v>
       </c>
       <c r="AB34" t="n">
+        <v>-0.00058572</v>
+      </c>
+      <c r="AC34" t="n">
         <v>0.0015215386</v>
       </c>
-      <c r="AC34" t="n">
-        <v>-0.0008880368</v>
-      </c>
       <c r="AD34" t="n">
+        <v>0.0010179606</v>
+      </c>
+      <c r="AE34" t="n">
         <v>0.00095715816</v>
       </c>
-      <c r="AE34" t="n">
-        <v>-0.001535951</v>
-      </c>
       <c r="AF34" t="n">
-        <v>0.0005309126999999999</v>
+        <v>-7.794629e-05</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.00058572</v>
+        <v>0.0006323023000000001</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.001312625</v>
+        <v>-0.0008326335000000001</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.0010179606</v>
+        <v>-0.00084693095</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-0.0006101056</v>
+        <v>0.00041153218</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.0014389814</v>
+        <v>0.00013874969</v>
       </c>
     </row>
     <row r="35">
@@ -4019,91 +4359,91 @@
         <v>-0.0014533139</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.00042198002</v>
+        <v>-0.0013459075</v>
       </c>
       <c r="J35" t="n">
         <v>-0.0011712657</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0013459075</v>
+        <v>0.0016441157</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0016441157</v>
+        <v>-0.00042198002</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0009461883</v>
+        <v>0.0009694211</v>
       </c>
       <c r="N35" t="n">
         <v>0.0014581971</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0009694211</v>
+        <v>0.0009461883</v>
       </c>
       <c r="P35" t="n">
-        <v>-9.543435600000001e-05</v>
+        <v>-0.0015198298</v>
       </c>
       <c r="Q35" t="n">
         <v>0.0014970892</v>
       </c>
       <c r="R35" t="n">
+        <v>-0.00030138175</v>
+      </c>
+      <c r="S35" t="n">
         <v>-0.00030736715</v>
       </c>
-      <c r="S35" t="n">
-        <v>-0.0002515735700000001</v>
-      </c>
       <c r="T35" t="n">
+        <v>0.00041315763</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.0015312776</v>
       </c>
-      <c r="U35" t="n">
-        <v>-0.0006813133400000001</v>
-      </c>
       <c r="V35" t="n">
-        <v>-0.00030138175</v>
+        <v>-0.000405611</v>
       </c>
       <c r="W35" t="n">
-        <v>0.00041315763</v>
+        <v>-0.00024805122</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.000785676</v>
+        <v>-0.0015425065</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.0015870495</v>
+        <v>-0.00058383925</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0011366428</v>
+        <v>0.0013424924</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.0013596409</v>
+        <v>-0.0014944117</v>
       </c>
       <c r="AB35" t="n">
+        <v>-0.00030219814</v>
+      </c>
+      <c r="AC35" t="n">
         <v>-0.00030882074</v>
       </c>
-      <c r="AC35" t="n">
-        <v>-0.00024901394</v>
-      </c>
       <c r="AD35" t="n">
+        <v>0.00041264945</v>
+      </c>
+      <c r="AE35" t="n">
         <v>0.0015341794</v>
       </c>
-      <c r="AE35" t="n">
-        <v>-0.0006806779</v>
-      </c>
       <c r="AF35" t="n">
-        <v>-0.0007873414</v>
+        <v>-0.00041085845</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.00030219814</v>
+        <v>-0.00023995392</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.0015920056</v>
+        <v>-0.0014973915</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.00041264945</v>
+        <v>-0.0015430714</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.0013614923</v>
+        <v>0.0007329415499999999</v>
       </c>
       <c r="AK35" t="n">
-        <v>-0.0012985755</v>
+        <v>0.0013434895</v>
       </c>
     </row>
     <row r="36">
@@ -4136,91 +4476,91 @@
         <v>-0.0010237426</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0013737978</v>
+        <v>1.8407518e-05</v>
       </c>
       <c r="J36" t="n">
         <v>-0.001316389</v>
       </c>
       <c r="K36" t="n">
-        <v>1.8407518e-05</v>
+        <v>0.0012408631</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0012408631</v>
+        <v>0.0013737978</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0014012352</v>
+        <v>-0.0010022541</v>
       </c>
       <c r="N36" t="n">
         <v>-0.0012522561</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0010022541</v>
+        <v>0.0014012352</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.0011536604</v>
+        <v>8.397139000000001e-05</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.0011945028</v>
       </c>
       <c r="R36" t="n">
+        <v>0.0012706303</v>
+      </c>
+      <c r="S36" t="n">
         <v>-0.0010758595</v>
       </c>
-      <c r="S36" t="n">
-        <v>0.00063919165</v>
-      </c>
       <c r="T36" t="n">
+        <v>4.3017095e-05</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.0009090208999999999</v>
       </c>
-      <c r="U36" t="n">
-        <v>0.0014051495</v>
-      </c>
       <c r="V36" t="n">
-        <v>0.0012706303</v>
+        <v>-0.0012932057</v>
       </c>
       <c r="W36" t="n">
-        <v>4.3017095e-05</v>
+        <v>-0.0012095951</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.0012478243</v>
+        <v>0.001364566</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.646315e-05</v>
+        <v>0.000106158506</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0013069077</v>
+        <v>-0.0002824851799999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.0006580762599999999</v>
+        <v>-0.0008588703</v>
       </c>
       <c r="AB36" t="n">
+        <v>0.0012690979</v>
+      </c>
+      <c r="AC36" t="n">
         <v>-0.0010777772</v>
       </c>
-      <c r="AC36" t="n">
-        <v>0.0006410742</v>
-      </c>
       <c r="AD36" t="n">
+        <v>4.6057554e-05</v>
+      </c>
+      <c r="AE36" t="n">
         <v>0.0009078416</v>
       </c>
-      <c r="AE36" t="n">
-        <v>0.0014052492</v>
-      </c>
       <c r="AF36" t="n">
-        <v>-0.0012483788</v>
+        <v>-0.0012931547</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0012690979</v>
+        <v>-0.001209661</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.657586e-05</v>
+        <v>-0.0008637219999999999</v>
       </c>
       <c r="AI36" t="n">
-        <v>4.6057554e-05</v>
+        <v>0.0013648244</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-0.0006586865</v>
+        <v>-0.0008646488</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.0009895124</v>
+        <v>-0.0002836908</v>
       </c>
     </row>
     <row r="37">
@@ -4253,91 +4593,91 @@
         <v>0.0012661049</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0005365738</v>
+        <v>-0.0007507286</v>
       </c>
       <c r="J37" t="n">
         <v>-0.00028011194</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0007507286</v>
+        <v>0.0013116272</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0013116272</v>
+        <v>0.0005365738</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.00073212775</v>
+        <v>0.0009043648599999999</v>
       </c>
       <c r="N37" t="n">
         <v>0.0008206567</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0009043648599999999</v>
+        <v>-0.00073212775</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0008611270500000001</v>
+        <v>0.0013857896</v>
       </c>
       <c r="Q37" t="n">
         <v>0.0013813787</v>
       </c>
       <c r="R37" t="n">
+        <v>0.0014724839</v>
+      </c>
+      <c r="S37" t="n">
         <v>-0.0010589866</v>
       </c>
-      <c r="S37" t="n">
-        <v>-0.0014153479</v>
-      </c>
       <c r="T37" t="n">
+        <v>0.0003729906700000001</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.0005197102400000001</v>
       </c>
-      <c r="U37" t="n">
-        <v>-0.0007145325699999999</v>
-      </c>
       <c r="V37" t="n">
-        <v>0.0014724839</v>
+        <v>-0.00023458518</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0003729906700000001</v>
+        <v>0.00063718983</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.0005780883</v>
+        <v>0.00054860185</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0003514367</v>
+        <v>-0.0008760087</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0004253394</v>
+        <v>-0.00073526625</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.00083122106</v>
+        <v>-0.0014058272</v>
       </c>
       <c r="AB37" t="n">
+        <v>0.0014734889</v>
+      </c>
+      <c r="AC37" t="n">
         <v>-0.0010599932</v>
       </c>
-      <c r="AC37" t="n">
-        <v>-0.0014146476</v>
-      </c>
       <c r="AD37" t="n">
+        <v>0.0003681459</v>
+      </c>
+      <c r="AE37" t="n">
         <v>0.0005181994</v>
       </c>
-      <c r="AE37" t="n">
-        <v>-0.0007126963000000001</v>
-      </c>
       <c r="AF37" t="n">
-        <v>-0.0005793393400000001</v>
+        <v>-0.00023651062</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0014734889</v>
+        <v>0.0006391982</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.0003501844</v>
+        <v>-0.0014049413</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.0003681459</v>
+        <v>0.0005460598599999999</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.0008344737599999999</v>
+        <v>-0.0016351638</v>
       </c>
       <c r="AK37" t="n">
-        <v>-8.239587600000001e-05</v>
+        <v>-0.00073555997</v>
       </c>
     </row>
     <row r="38">
@@ -4370,91 +4710,91 @@
         <v>-0.0011120153</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0014812988</v>
+        <v>0.0001139071</v>
       </c>
       <c r="J38" t="n">
         <v>-0.001064562</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001139071</v>
+        <v>0.0014561537</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0014561537</v>
+        <v>-0.0014812988</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0007796102000000001</v>
+        <v>0.0005060206</v>
       </c>
       <c r="N38" t="n">
         <v>-0.0011511254</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0005060206</v>
+        <v>-0.0007796102000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.0004037975</v>
+        <v>-0.0013525876</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0006975117</v>
       </c>
       <c r="R38" t="n">
+        <v>-0.0010178172</v>
+      </c>
+      <c r="S38" t="n">
         <v>-0.0004618437400000001</v>
       </c>
-      <c r="S38" t="n">
-        <v>7.091581e-05</v>
-      </c>
       <c r="T38" t="n">
+        <v>-0.0009490397599999999</v>
+      </c>
+      <c r="U38" t="n">
         <v>-0.0006896922000000001</v>
       </c>
-      <c r="U38" t="n">
-        <v>0.0009906945</v>
-      </c>
       <c r="V38" t="n">
-        <v>-0.0010178172</v>
+        <v>-0.0010464467</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.0009490397599999999</v>
+        <v>-4.444153e-06</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0009108973300000001</v>
+        <v>0.0008682636</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0010761931</v>
+        <v>0.0008309025</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.0006059734999999999</v>
+        <v>0.0006653507000000001</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0014787655</v>
+        <v>0.0009065952</v>
       </c>
       <c r="AB38" t="n">
+        <v>-0.0010172902</v>
+      </c>
+      <c r="AC38" t="n">
         <v>-0.00045948944</v>
       </c>
-      <c r="AC38" t="n">
-        <v>7.3718875e-05</v>
-      </c>
       <c r="AD38" t="n">
+        <v>-0.0009523258</v>
+      </c>
+      <c r="AE38" t="n">
         <v>-0.0006909603</v>
       </c>
-      <c r="AE38" t="n">
-        <v>0.0009894597999999999</v>
-      </c>
       <c r="AF38" t="n">
-        <v>0.00091045524</v>
+        <v>-0.0010457722</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.0010172902</v>
+        <v>-2.4008673e-06</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0010734941</v>
+        <v>0.00090515456</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.0009523258</v>
+        <v>0.0008696642</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.0014793241</v>
+        <v>-0.00059437903</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.00019701703</v>
+        <v>0.0006658037</v>
       </c>
     </row>
     <row r="39">
@@ -4487,91 +4827,91 @@
         <v>0.0010426581</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0013558844</v>
+        <v>-0.0014357935</v>
       </c>
       <c r="J39" t="n">
         <v>0.0014563157</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0014357935</v>
+        <v>-0.00030954924</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.00030954924</v>
+        <v>-0.0013558844</v>
       </c>
       <c r="M39" t="n">
-        <v>0.000786485</v>
+        <v>-0.0012631686</v>
       </c>
       <c r="N39" t="n">
         <v>-0.00080379314</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.0012631686</v>
+        <v>0.000786485</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0014645348</v>
+        <v>-0.0013981014</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.0011982138</v>
       </c>
       <c r="R39" t="n">
+        <v>0.0007841145</v>
+      </c>
+      <c r="S39" t="n">
         <v>-0.0006033649</v>
       </c>
-      <c r="S39" t="n">
-        <v>-0.0007065213000000001</v>
-      </c>
       <c r="T39" t="n">
+        <v>0.0004336828</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.0011048892</v>
       </c>
-      <c r="U39" t="n">
-        <v>-0.0004270937</v>
-      </c>
       <c r="V39" t="n">
-        <v>0.0007841145</v>
+        <v>-0.0006639645</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0004336828</v>
+        <v>0.0014701567</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.00034218296</v>
+        <v>-3.782600999999999e-05</v>
       </c>
       <c r="Y39" t="n">
-        <v>-2.4643588e-05</v>
+        <v>0.0010723586</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0011245209</v>
+        <v>-0.0015278894</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.00014860708</v>
+        <v>-0.00058422226</v>
       </c>
       <c r="AB39" t="n">
+        <v>0.0007860768</v>
+      </c>
+      <c r="AC39" t="n">
         <v>-0.0006022708</v>
       </c>
-      <c r="AC39" t="n">
-        <v>-0.0007065967</v>
-      </c>
       <c r="AD39" t="n">
+        <v>0.00042968075</v>
+      </c>
+      <c r="AE39" t="n">
         <v>0.0011077209</v>
       </c>
-      <c r="AE39" t="n">
-        <v>-0.00042701102</v>
-      </c>
       <c r="AF39" t="n">
-        <v>-0.0003454447</v>
+        <v>-0.0006652532</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0007860768</v>
+        <v>0.0014706659</v>
       </c>
       <c r="AH39" t="n">
-        <v>-2.7903765e-05</v>
+        <v>-0.000587427</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.00042968075</v>
+        <v>-3.9368515e-05</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.00014655516</v>
+        <v>-0.00064538646</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.0011619148</v>
+        <v>-0.0015304842</v>
       </c>
     </row>
     <row r="40">
@@ -4600,36 +4940,96 @@
           <t>SL Murray, JL Derrick, S Leder, JG Holmes</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0.00029735302</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.0009942016999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.0014310075</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0004235492400000001</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0016544914</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0009578042699999999</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.0010476274</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.0012417329</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.0005439414</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.0016636013</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.0015513122</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00024125229</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.0011087572</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0009286575400000001</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.0010068882</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-0.0007801452000000001</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.0016281593</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0004522549</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.00015024857</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.000811558</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-0.0015491124</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.00024379308</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-0.0011087855</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.0009285571</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>-0.0010076505</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-0.00077842595</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-0.00081260095</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>-0.0016256459</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.0009583238999999999</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.00015046072</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4661,91 +5061,91 @@
         <v>-0.0007761944</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0016277165</v>
+        <v>-0.0011143618</v>
       </c>
       <c r="J41" t="n">
         <v>-0.0006397045</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0011143618</v>
+        <v>0.00089526287</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00089526287</v>
+        <v>-0.0016277165</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.00026599437</v>
+        <v>0.00052941823</v>
       </c>
       <c r="N41" t="n">
         <v>-0.00013342853</v>
       </c>
       <c r="O41" t="n">
-        <v>0.00052941823</v>
+        <v>-0.00026599437</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.0015517642</v>
+        <v>0.0015562414</v>
       </c>
       <c r="Q41" t="n">
         <v>0.00039768557</v>
       </c>
       <c r="R41" t="n">
+        <v>0.001450618</v>
+      </c>
+      <c r="S41" t="n">
         <v>-0.0013227229</v>
       </c>
-      <c r="S41" t="n">
-        <v>-0.0010362666</v>
-      </c>
       <c r="T41" t="n">
+        <v>0.001625262</v>
+      </c>
+      <c r="U41" t="n">
         <v>-0.000800625</v>
       </c>
-      <c r="U41" t="n">
-        <v>-0.0012401947</v>
-      </c>
       <c r="V41" t="n">
-        <v>0.001450618</v>
+        <v>7.872461999999999e-05</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001625262</v>
+        <v>0.000533998</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0006933060000000001</v>
+        <v>-0.00011742217</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0016035388</v>
+        <v>0.0006434415</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0006151480499999999</v>
+        <v>-0.0015747173</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0012579462</v>
+        <v>-0.0003474767700000001</v>
       </c>
       <c r="AB41" t="n">
+        <v>0.0014512343</v>
+      </c>
+      <c r="AC41" t="n">
         <v>-0.0013221208</v>
       </c>
-      <c r="AC41" t="n">
-        <v>-0.0010359882</v>
-      </c>
       <c r="AD41" t="n">
+        <v>0.0016235315</v>
+      </c>
+      <c r="AE41" t="n">
         <v>-0.0007995236999999999</v>
       </c>
-      <c r="AE41" t="n">
-        <v>-0.0012395617</v>
-      </c>
       <c r="AF41" t="n">
-        <v>0.00069270143</v>
+        <v>7.684773e-05</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0014512343</v>
+        <v>0.0005353530999999999</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.0016027334</v>
+        <v>-0.0003500326</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.0016235315</v>
+        <v>-0.00011758537</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.0012549489</v>
+        <v>-0.0007590796000000001</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.00054451387</v>
+        <v>-0.0015728537</v>
       </c>
     </row>
     <row r="42">
@@ -4778,91 +5178,91 @@
         <v>-0.0003691717</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.0008741394</v>
+        <v>0.0015669378</v>
       </c>
       <c r="J42" t="n">
         <v>-0.00026348385</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0015669378</v>
+        <v>0.00087975245</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00087975245</v>
+        <v>-0.0008741394</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0015233215</v>
+        <v>-0.0010250024</v>
       </c>
       <c r="N42" t="n">
         <v>0.0005095825</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0010250024</v>
+        <v>0.0015233215</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0016172589</v>
+        <v>-0.0007020871</v>
       </c>
       <c r="Q42" t="n">
         <v>-0.00089068705</v>
       </c>
       <c r="R42" t="n">
+        <v>0.00018831345</v>
+      </c>
+      <c r="S42" t="n">
         <v>-0.0010057735</v>
       </c>
-      <c r="S42" t="n">
-        <v>-0.00021490932</v>
-      </c>
       <c r="T42" t="n">
+        <v>0.0013498256</v>
+      </c>
+      <c r="U42" t="n">
         <v>-0.0013771853</v>
       </c>
-      <c r="U42" t="n">
-        <v>-4.111683e-05</v>
-      </c>
       <c r="V42" t="n">
-        <v>0.00018831345</v>
+        <v>0.0016314526</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0013498256</v>
+        <v>-0.0013474635</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.0005413319999999999</v>
+        <v>9.835535499999999e-05</v>
       </c>
       <c r="Y42" t="n">
-        <v>-0.0012671017</v>
+        <v>-0.0015078463</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0010279453</v>
+        <v>-0.00018029439</v>
       </c>
       <c r="AA42" t="n">
-        <v>-0.00072187633</v>
+        <v>-0.0012700435</v>
       </c>
       <c r="AB42" t="n">
+        <v>0.0001882262</v>
+      </c>
+      <c r="AC42" t="n">
         <v>-0.0010058072</v>
       </c>
-      <c r="AC42" t="n">
-        <v>-0.00021790307</v>
-      </c>
       <c r="AD42" t="n">
+        <v>0.0013532519</v>
+      </c>
+      <c r="AE42" t="n">
         <v>-0.0013759233</v>
       </c>
-      <c r="AE42" t="n">
-        <v>-3.7955226e-05</v>
-      </c>
       <c r="AF42" t="n">
-        <v>-0.00054343237</v>
+        <v>0.0016321806</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0001882262</v>
+        <v>-0.0013448027</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.0012682256</v>
+        <v>-0.0012693773</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.0013532519</v>
+        <v>9.8273886e-05</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.0007195608</v>
+        <v>-7.423462400000001e-05</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.0007461467999999999</v>
+        <v>-0.00018105097</v>
       </c>
     </row>
     <row r="43">
@@ -4895,28 +5295,28 @@
         <v>-0.0015144704</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.001052927</v>
+        <v>-0.00043160026</v>
       </c>
       <c r="J43" t="n">
         <v>-0.0016473582</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.00043160026</v>
+        <v>0.0002782256</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0002782256</v>
+        <v>-0.001052927</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.001257667</v>
+        <v>0.0006038877</v>
       </c>
       <c r="N43" t="n">
         <v>1.3547434e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0006038877</v>
+        <v>-0.001257667</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.0012985873</v>
+        <v>0.0014281084</v>
       </c>
       <c r="Q43" t="n">
         <v>0.00017179549</v>
@@ -4932,34 +5332,34 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
+        <v>0.0008893217999999999</v>
+      </c>
+      <c r="AC43" t="n">
         <v>0.00129218</v>
       </c>
-      <c r="AC43" t="n">
-        <v>0.00023398166</v>
-      </c>
       <c r="AD43" t="n">
+        <v>-0.00021010062</v>
+      </c>
+      <c r="AE43" t="n">
         <v>0.0003165233</v>
       </c>
-      <c r="AE43" t="n">
-        <v>-0.0011518335</v>
-      </c>
       <c r="AF43" t="n">
-        <v>-0.0012870565</v>
+        <v>-9.809399499999999e-05</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0008893217999999999</v>
+        <v>-0.00032889124</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.0009411603999999999</v>
+        <v>-0.0010653294</v>
       </c>
       <c r="AI43" t="n">
-        <v>-0.00021010062</v>
+        <v>-0.00034061496</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.000927723</v>
+        <v>0.0008451975</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.00064931886</v>
+        <v>-0.00027400756</v>
       </c>
     </row>
     <row r="44">
@@ -4992,91 +5392,91 @@
         <v>-0.0015442375</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.0015649941</v>
+        <v>0.0016124307</v>
       </c>
       <c r="J44" t="n">
         <v>-0.0010996958</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0016124307</v>
+        <v>-0.0008654489999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0008654489999999999</v>
+        <v>-0.0015649941</v>
       </c>
       <c r="M44" t="n">
-        <v>-9.045556999999999e-05</v>
+        <v>-0.0003434199299999999</v>
       </c>
       <c r="N44" t="n">
         <v>0.00095660146</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0003434199299999999</v>
+        <v>-9.045556999999999e-05</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.00062784617</v>
+        <v>-0.0003620695</v>
       </c>
       <c r="Q44" t="n">
         <v>-0.0004720179</v>
       </c>
       <c r="R44" t="n">
+        <v>-0.00028454926</v>
+      </c>
+      <c r="S44" t="n">
         <v>0.00053305895</v>
       </c>
-      <c r="S44" t="n">
-        <v>-9.967641e-05</v>
-      </c>
       <c r="T44" t="n">
+        <v>-0.0009523283999999999</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.0013613156</v>
       </c>
-      <c r="U44" t="n">
-        <v>0.0010540463</v>
-      </c>
       <c r="V44" t="n">
-        <v>-0.00028454926</v>
+        <v>-0.0012605373</v>
       </c>
       <c r="W44" t="n">
-        <v>-0.0009523283999999999</v>
+        <v>0.0012167498</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0006667067999999999</v>
+        <v>-0.0009261616</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0016185943</v>
+        <v>-0.00047602606</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.001339839</v>
+        <v>-0.00070999237</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.0013890514</v>
+        <v>-0.0016290802</v>
       </c>
       <c r="AB44" t="n">
+        <v>-0.00028589016</v>
+      </c>
+      <c r="AC44" t="n">
         <v>0.0005305779</v>
       </c>
-      <c r="AC44" t="n">
-        <v>-9.738485000000001e-05</v>
-      </c>
       <c r="AD44" t="n">
+        <v>-0.000952756</v>
+      </c>
+      <c r="AE44" t="n">
         <v>0.0013639355</v>
       </c>
-      <c r="AE44" t="n">
-        <v>0.00105776</v>
-      </c>
       <c r="AF44" t="n">
-        <v>0.0006627753999999999</v>
+        <v>-0.0012602435</v>
       </c>
       <c r="AG44" t="n">
-        <v>-0.00028589016</v>
+        <v>0.0012172613</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.0016158283</v>
+        <v>-0.001625221</v>
       </c>
       <c r="AI44" t="n">
-        <v>-0.000952756</v>
+        <v>-0.0009311257000000001</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-0.0013903911</v>
+        <v>-0.0006052546</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.5534926e-05</v>
+        <v>-0.00070903875</v>
       </c>
     </row>
     <row r="45">
@@ -5105,36 +5505,96 @@
           <t>C Farris, TA Treat, RJ Viken, RM McFall</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>-0.0015859773</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0015867316</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.0005290783</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6.501795e-05</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0005971530999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.0012881458</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0008469705</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0015479202</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.0008945101</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.0007048357</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.00047544335</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0011724428</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-0.0005475640599999999</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.0009562759699999999</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.0012966207</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-0.0010526688</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-0.0008251485400000001</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0016116919</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-0.00060890504</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>-0.000118965276</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>-0.00047227822</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0011715095</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.00054737186</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.00095449155</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>-0.0012940633</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-0.0010579703</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-0.00011701901</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>-0.0008232389999999999</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>-3.4002718e-05</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-0.0006096277</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5166,91 +5626,91 @@
         <v>-0.0009105145599999999</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0008674284300000001</v>
+        <v>-0.0013279825</v>
       </c>
       <c r="J46" t="n">
         <v>0.0013000702</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0013279825</v>
+        <v>-0.00024691437</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.00024691437</v>
+        <v>-0.0008674284300000001</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.001447323</v>
+        <v>0.0008246756</v>
       </c>
       <c r="N46" t="n">
         <v>-0.0008725145599999999</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0008246756</v>
+        <v>-0.001447323</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.0006029201</v>
+        <v>0.00017135915</v>
       </c>
       <c r="Q46" t="n">
         <v>0.0011129214</v>
       </c>
       <c r="R46" t="n">
+        <v>-0.0012492271</v>
+      </c>
+      <c r="S46" t="n">
         <v>0.0008467744300000001</v>
       </c>
-      <c r="S46" t="n">
-        <v>0.0012090976</v>
-      </c>
       <c r="T46" t="n">
+        <v>0.001349201</v>
+      </c>
+      <c r="U46" t="n">
         <v>-0.0012886316</v>
       </c>
-      <c r="U46" t="n">
-        <v>0.00036856765</v>
-      </c>
       <c r="V46" t="n">
-        <v>-0.0012492271</v>
+        <v>0.0014932597</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001349201</v>
+        <v>0.0010608153</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0008316521</v>
+        <v>-0.0012950836</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0016307669</v>
+        <v>0.0003621496700000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0005265958</v>
+        <v>0.0007247321000000001</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.0015337041</v>
+        <v>0.0016211151</v>
       </c>
       <c r="AB46" t="n">
+        <v>-0.0012484618</v>
+      </c>
+      <c r="AC46" t="n">
         <v>0.00084771117</v>
       </c>
-      <c r="AC46" t="n">
-        <v>0.0012076782</v>
-      </c>
       <c r="AD46" t="n">
+        <v>0.0013496936</v>
+      </c>
+      <c r="AE46" t="n">
         <v>-0.0012882622</v>
       </c>
-      <c r="AE46" t="n">
-        <v>0.00036697785</v>
-      </c>
       <c r="AF46" t="n">
-        <v>0.00082664524</v>
+        <v>0.0014931568</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.0012484618</v>
+        <v>0.0010596414</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.001633171</v>
+        <v>0.0016184895</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.0013496936</v>
+        <v>-0.0012952867</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.0015313891</v>
+        <v>-0.00015455691</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.0007055118</v>
+        <v>0.0007288659</v>
       </c>
     </row>
     <row r="47">
@@ -5283,91 +5743,91 @@
         <v>0.0014060142</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0014458915</v>
+        <v>-0.0007283555</v>
       </c>
       <c r="J47" t="n">
         <v>0.0006976783599999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0007283555</v>
+        <v>0.000793995</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000793995</v>
+        <v>0.0014458915</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.00085137784</v>
+        <v>0.0015317115</v>
       </c>
       <c r="N47" t="n">
         <v>0.0015997087</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0015317115</v>
+        <v>-0.00085137784</v>
       </c>
       <c r="P47" t="n">
-        <v>0.00050485885</v>
+        <v>0.00060082093</v>
       </c>
       <c r="Q47" t="n">
         <v>0.0012645884</v>
       </c>
       <c r="R47" t="n">
+        <v>-0.0012612754</v>
+      </c>
+      <c r="S47" t="n">
         <v>0.0009938097999999999</v>
       </c>
-      <c r="S47" t="n">
-        <v>-0.0008584269</v>
-      </c>
       <c r="T47" t="n">
+        <v>-0.0012289607</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.0012191383</v>
       </c>
-      <c r="U47" t="n">
-        <v>0.0015194459</v>
-      </c>
       <c r="V47" t="n">
-        <v>-0.0012612754</v>
+        <v>-0.00033643568</v>
       </c>
       <c r="W47" t="n">
-        <v>-0.0012289607</v>
+        <v>0.0005338351</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0015256822</v>
+        <v>-0.0010455599</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.00025174295</v>
+        <v>-0.00086170493</v>
       </c>
       <c r="Z47" t="n">
-        <v>3.9173443e-05</v>
+        <v>0.00018232309</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.0005890712999999999</v>
+        <v>0.0007755584700000001</v>
       </c>
       <c r="AB47" t="n">
+        <v>-0.0012616221</v>
+      </c>
+      <c r="AC47" t="n">
         <v>0.0009976011999999999</v>
       </c>
-      <c r="AC47" t="n">
-        <v>-0.0008582253999999999</v>
-      </c>
       <c r="AD47" t="n">
+        <v>-0.001229419</v>
+      </c>
+      <c r="AE47" t="n">
         <v>0.001217033</v>
       </c>
-      <c r="AE47" t="n">
-        <v>0.0015155055</v>
-      </c>
       <c r="AF47" t="n">
-        <v>0.0015278801</v>
+        <v>-0.00033045904</v>
       </c>
       <c r="AG47" t="n">
-        <v>-0.0012616221</v>
+        <v>0.00052727864</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.00025220352</v>
+        <v>0.0007795546000000001</v>
       </c>
       <c r="AI47" t="n">
-        <v>-0.001229419</v>
+        <v>-0.0010395208</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-0.0005901629299999999</v>
+        <v>0.00039421304</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.0007992695</v>
+        <v>0.00017421026</v>
       </c>
     </row>
     <row r="48">
@@ -5400,91 +5860,91 @@
         <v>0.0013487554</v>
       </c>
       <c r="I48" t="n">
-        <v>2.7003642e-05</v>
+        <v>-0.0013993774</v>
       </c>
       <c r="J48" t="n">
         <v>-0.0004297262</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0013993774</v>
+        <v>-0.0010719079</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0010719079</v>
+        <v>2.7003642e-05</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0014962273</v>
+        <v>-0.0014608995</v>
       </c>
       <c r="N48" t="n">
         <v>0.00093552296</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0014608995</v>
+        <v>-0.0014962273</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0011487337</v>
+        <v>0.0010707711</v>
       </c>
       <c r="Q48" t="n">
         <v>-0.000114100396</v>
       </c>
       <c r="R48" t="n">
+        <v>0.0010421667</v>
+      </c>
+      <c r="S48" t="n">
         <v>0.0010423023</v>
       </c>
-      <c r="S48" t="n">
-        <v>-0.0015249646</v>
-      </c>
       <c r="T48" t="n">
+        <v>0.0015057643</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.00051952555</v>
       </c>
-      <c r="U48" t="n">
-        <v>-0.0007770146</v>
-      </c>
       <c r="V48" t="n">
-        <v>0.0010421667</v>
+        <v>0.00039651067</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0015057643</v>
+        <v>0.00059639185</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0015617805</v>
+        <v>0.0013055758</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.00022770422</v>
+        <v>0.0012640305</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.00092576735</v>
+        <v>-0.00026017177</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0012181858</v>
+        <v>0.0016514166</v>
       </c>
       <c r="AB48" t="n">
+        <v>0.0010450023</v>
+      </c>
+      <c r="AC48" t="n">
         <v>0.001042506</v>
       </c>
-      <c r="AC48" t="n">
-        <v>-0.0015275083</v>
-      </c>
       <c r="AD48" t="n">
+        <v>0.0015027287</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0.00051703776</v>
       </c>
-      <c r="AE48" t="n">
-        <v>-0.0007809416</v>
-      </c>
       <c r="AF48" t="n">
-        <v>0.0015616689</v>
+        <v>0.00039663524</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.0010450023</v>
+        <v>0.0006008301</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.0002326354</v>
+        <v>0.0016448863</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.0015027287</v>
+        <v>0.0013051083</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.0012167643</v>
+        <v>-0.0011872947</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.00033626595</v>
+        <v>-0.00026130426</v>
       </c>
     </row>
     <row r="49">
@@ -5517,91 +5977,91 @@
         <v>-0.0014070966</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0016261603</v>
+        <v>-0.0015621053</v>
       </c>
       <c r="J49" t="n">
         <v>0.00082151726</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0015621053</v>
+        <v>-0.0016174739</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0016174739</v>
+        <v>0.0016261603</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.001369988</v>
+        <v>0.0014681474</v>
       </c>
       <c r="N49" t="n">
         <v>4.128078e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0014681474</v>
+        <v>-0.001369988</v>
       </c>
       <c r="P49" t="n">
-        <v>0.00017859001</v>
+        <v>0.0015818616</v>
       </c>
       <c r="Q49" t="n">
         <v>-0.0007779883000000001</v>
       </c>
       <c r="R49" t="n">
+        <v>0.0015006023</v>
+      </c>
+      <c r="S49" t="n">
         <v>0.0014009522</v>
       </c>
-      <c r="S49" t="n">
-        <v>0.0010381861</v>
-      </c>
       <c r="T49" t="n">
+        <v>-0.0010545173</v>
+      </c>
+      <c r="U49" t="n">
         <v>-0.00042802555</v>
       </c>
-      <c r="U49" t="n">
-        <v>-0.0016501587</v>
-      </c>
       <c r="V49" t="n">
-        <v>0.0015006023</v>
+        <v>-0.0002178728</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.0010545173</v>
+        <v>0.001474421</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0007511774</v>
+        <v>9.8466044e-05</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.0007854442999999999</v>
+        <v>-0.00025818188</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.00054062676</v>
+        <v>-0.0005023136</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.00046658015</v>
+        <v>0.0012331528</v>
       </c>
       <c r="AB49" t="n">
+        <v>0.0014989045</v>
+      </c>
+      <c r="AC49" t="n">
         <v>0.0014015421</v>
       </c>
-      <c r="AC49" t="n">
-        <v>0.0010370763</v>
-      </c>
       <c r="AD49" t="n">
+        <v>-0.0010556</v>
+      </c>
+      <c r="AE49" t="n">
         <v>-0.0004296796</v>
       </c>
-      <c r="AE49" t="n">
-        <v>-0.0016478356</v>
-      </c>
       <c r="AF49" t="n">
-        <v>0.0007501478</v>
+        <v>-0.00021803618</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0014989045</v>
+        <v>0.0014741346</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.00078405655</v>
+        <v>0.0012354595</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.0010556</v>
+        <v>0.00010285072</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.0004647555200000001</v>
+        <v>0.00012761015</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.0006373831</v>
+        <v>-0.0005038258999999999</v>
       </c>
     </row>
     <row r="50">
@@ -5634,91 +6094,91 @@
         <v>0.00053451094</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.00018574695</v>
+        <v>0.00043171845</v>
       </c>
       <c r="J50" t="n">
         <v>-0.00057532627</v>
       </c>
       <c r="K50" t="n">
-        <v>0.00043171845</v>
+        <v>0.00027253447</v>
       </c>
       <c r="L50" t="n">
-        <v>0.00027253447</v>
+        <v>-0.00018574695</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0013429654</v>
+        <v>0.00015593882</v>
       </c>
       <c r="N50" t="n">
         <v>-0.00028896355</v>
       </c>
       <c r="O50" t="n">
-        <v>0.00015593882</v>
+        <v>-0.0013429654</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.0011634033</v>
+        <v>0.00016493868</v>
       </c>
       <c r="Q50" t="n">
         <v>0.0015960076</v>
       </c>
       <c r="R50" t="n">
+        <v>0.0013582442</v>
+      </c>
+      <c r="S50" t="n">
         <v>-0.0010560987</v>
       </c>
-      <c r="S50" t="n">
-        <v>-0.0013103961</v>
-      </c>
       <c r="T50" t="n">
+        <v>-0.0010018663</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.0007808619</v>
       </c>
-      <c r="U50" t="n">
-        <v>0.00022689841</v>
-      </c>
       <c r="V50" t="n">
-        <v>0.0013582442</v>
+        <v>0.0012912448</v>
       </c>
       <c r="W50" t="n">
-        <v>-0.0010018663</v>
+        <v>2.3647406e-05</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.0005809214</v>
+        <v>0.0015838825</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.0009515578999999999</v>
+        <v>-0.00010539377</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.00056569185</v>
+        <v>0.00087588903</v>
       </c>
       <c r="AA50" t="n">
-        <v>-0.001300152</v>
+        <v>0.00047830917</v>
       </c>
       <c r="AB50" t="n">
+        <v>0.0013552051</v>
+      </c>
+      <c r="AC50" t="n">
         <v>-0.0010549332</v>
       </c>
-      <c r="AC50" t="n">
-        <v>-0.0013108408</v>
-      </c>
       <c r="AD50" t="n">
+        <v>-0.0010017775</v>
+      </c>
+      <c r="AE50" t="n">
         <v>0.0007785775</v>
       </c>
-      <c r="AE50" t="n">
-        <v>0.00022640245</v>
-      </c>
       <c r="AF50" t="n">
-        <v>-0.0005804665</v>
+        <v>0.0012925061</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.0013552051</v>
+        <v>2.6286245e-05</v>
       </c>
       <c r="AH50" t="n">
-        <v>-0.0009513086</v>
+        <v>0.0004809613</v>
       </c>
       <c r="AI50" t="n">
-        <v>-0.0010017775</v>
+        <v>0.0015841953</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.0013013317</v>
+        <v>-0.0007452507000000001</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.0007765757000000001</v>
+        <v>0.0008722308599999999</v>
       </c>
     </row>
     <row r="51">
@@ -5751,91 +6211,91 @@
         <v>-0.000408679</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0015420987</v>
+        <v>-0.0010977415</v>
       </c>
       <c r="J51" t="n">
         <v>-0.0007271747</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0010977415</v>
+        <v>-0.0015456286</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0015456286</v>
+        <v>0.0015420987</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0006249287</v>
+        <v>-0.0009290302</v>
       </c>
       <c r="N51" t="n">
         <v>0.0012840304</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.0009290302</v>
+        <v>-0.0006249287</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.0001198981</v>
+        <v>-0.001640842</v>
       </c>
       <c r="Q51" t="n">
         <v>0.0015347945</v>
       </c>
       <c r="R51" t="n">
+        <v>0.0016046517</v>
+      </c>
+      <c r="S51" t="n">
         <v>0.0011874106</v>
       </c>
-      <c r="S51" t="n">
-        <v>0.0008086898</v>
-      </c>
       <c r="T51" t="n">
+        <v>0.00011668127</v>
+      </c>
+      <c r="U51" t="n">
         <v>0.00015166447</v>
       </c>
-      <c r="U51" t="n">
-        <v>-0.0013977346</v>
-      </c>
       <c r="V51" t="n">
-        <v>0.0016046517</v>
+        <v>0.00083926046</v>
       </c>
       <c r="W51" t="n">
-        <v>0.00011668127</v>
+        <v>-0.0010847024</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0013621635</v>
+        <v>0.00027898586</v>
       </c>
       <c r="Y51" t="n">
-        <v>-0.00019822596</v>
+        <v>-0.001283636</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.000342754</v>
+        <v>-0.0003490948</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.00041076035</v>
+        <v>-0.0002718802</v>
       </c>
       <c r="AB51" t="n">
+        <v>0.0016070895</v>
+      </c>
+      <c r="AC51" t="n">
         <v>0.0011901557</v>
       </c>
-      <c r="AC51" t="n">
-        <v>0.00080681377</v>
-      </c>
       <c r="AD51" t="n">
+        <v>0.00011840594</v>
+      </c>
+      <c r="AE51" t="n">
         <v>0.00015161265</v>
       </c>
-      <c r="AE51" t="n">
-        <v>-0.0013980699</v>
-      </c>
       <c r="AF51" t="n">
-        <v>0.0013623432</v>
+        <v>0.0008404807</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0016070895</v>
+        <v>-0.0010835797</v>
       </c>
       <c r="AH51" t="n">
-        <v>-0.0001999709</v>
+        <v>-0.00026919533</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.00011840594</v>
+        <v>0.0002801056</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.00041257637</v>
+        <v>-0.0015562335</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.0006332460299999999</v>
+        <v>-0.0003534242</v>
       </c>
     </row>
     <row r="52">
@@ -5868,91 +6328,91 @@
         <v>-0.0012114706</v>
       </c>
       <c r="I52" t="n">
-        <v>0.001471004</v>
+        <v>0.0006455491000000001</v>
       </c>
       <c r="J52" t="n">
         <v>-0.00040757528</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0006455491000000001</v>
+        <v>-0.0012212343</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0012212343</v>
+        <v>0.001471004</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00044453482</v>
+        <v>-0.0008713244500000001</v>
       </c>
       <c r="N52" t="n">
         <v>-0.0013004562</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.0008713244500000001</v>
+        <v>0.00044453482</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.0008933226300000001</v>
+        <v>-0.001289794</v>
       </c>
       <c r="Q52" t="n">
         <v>-0.0007947888</v>
       </c>
       <c r="R52" t="n">
+        <v>-0.0010993931</v>
+      </c>
+      <c r="S52" t="n">
         <v>0.00091696694</v>
       </c>
-      <c r="S52" t="n">
-        <v>0.001233948</v>
-      </c>
       <c r="T52" t="n">
+        <v>-0.0014185291</v>
+      </c>
+      <c r="U52" t="n">
         <v>-0.001437273</v>
       </c>
-      <c r="U52" t="n">
-        <v>-0.001211082</v>
-      </c>
       <c r="V52" t="n">
-        <v>-0.0010993931</v>
+        <v>-0.0003837356299999999</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.0014185291</v>
+        <v>-0.0009797607000000001</v>
       </c>
       <c r="X52" t="n">
-        <v>0.00032082575</v>
+        <v>0.000199405</v>
       </c>
       <c r="Y52" t="n">
-        <v>-0.0010950331</v>
+        <v>-0.00046436692</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0009643467500000001</v>
+        <v>0.0016322038</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.00027096845</v>
+        <v>-0.00150753</v>
       </c>
       <c r="AB52" t="n">
+        <v>-0.0011009371</v>
+      </c>
+      <c r="AC52" t="n">
         <v>0.0009141773</v>
       </c>
-      <c r="AC52" t="n">
-        <v>0.001232527</v>
-      </c>
       <c r="AD52" t="n">
+        <v>-0.0014188865</v>
+      </c>
+      <c r="AE52" t="n">
         <v>-0.0014352587</v>
       </c>
-      <c r="AE52" t="n">
-        <v>-0.0012134954</v>
-      </c>
       <c r="AF52" t="n">
-        <v>0.00032223837</v>
+        <v>-0.00038355295</v>
       </c>
       <c r="AG52" t="n">
-        <v>-0.0011009371</v>
+        <v>-0.0009816393</v>
       </c>
       <c r="AH52" t="n">
-        <v>-0.0010963947</v>
+        <v>-0.0015087179</v>
       </c>
       <c r="AI52" t="n">
-        <v>-0.0014188865</v>
+        <v>0.00020110006</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-0.00026921034</v>
+        <v>-0.00037479703</v>
       </c>
       <c r="AK52" t="n">
-        <v>4.079692e-05</v>
+        <v>0.0016329164</v>
       </c>
     </row>
     <row r="53">
@@ -5985,91 +6445,91 @@
         <v>-0.00019313276</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.00048500742</v>
+        <v>-0.0005845309</v>
       </c>
       <c r="J53" t="n">
         <v>0.0015956747</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0005845309</v>
+        <v>-0.00045607108</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.00045607108</v>
+        <v>-0.00048500742</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0007125076400000001</v>
+        <v>0.0014022809</v>
       </c>
       <c r="N53" t="n">
         <v>0.00023228451</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0014022809</v>
+        <v>-0.0007125076400000001</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0004336274299999999</v>
+        <v>0.0005846595999999999</v>
       </c>
       <c r="Q53" t="n">
         <v>-0.0006388666000000001</v>
       </c>
       <c r="R53" t="n">
+        <v>-0.0005497541</v>
+      </c>
+      <c r="S53" t="n">
         <v>-0.0010378155</v>
       </c>
-      <c r="S53" t="n">
-        <v>0.0009213086</v>
-      </c>
       <c r="T53" t="n">
+        <v>0.0001452616</v>
+      </c>
+      <c r="U53" t="n">
         <v>0.0012870565</v>
       </c>
-      <c r="U53" t="n">
-        <v>-0.00012443427</v>
-      </c>
       <c r="V53" t="n">
-        <v>-0.0005497541</v>
+        <v>0.0006970434</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0001452616</v>
+        <v>-0.0011583064</v>
       </c>
       <c r="X53" t="n">
-        <v>-0.0011242406</v>
+        <v>0.0006317061499999999</v>
       </c>
       <c r="Y53" t="n">
-        <v>-0.0007565814</v>
+        <v>-0.0012249576</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0006085842</v>
+        <v>-0.0012946473</v>
       </c>
       <c r="AA53" t="n">
-        <v>-0.0015575469</v>
+        <v>-0.0012005992</v>
       </c>
       <c r="AB53" t="n">
+        <v>-0.0005510108000000001</v>
+      </c>
+      <c r="AC53" t="n">
         <v>-0.0010386101</v>
       </c>
-      <c r="AC53" t="n">
-        <v>0.0009208155699999998</v>
-      </c>
       <c r="AD53" t="n">
+        <v>0.00014358672</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0.001286049</v>
       </c>
-      <c r="AE53" t="n">
-        <v>-0.0001225049</v>
-      </c>
       <c r="AF53" t="n">
-        <v>-0.0011269487</v>
+        <v>0.0006965819</v>
       </c>
       <c r="AG53" t="n">
-        <v>-0.0005510108000000001</v>
+        <v>-0.0011604234</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.00075464806</v>
+        <v>-0.0012013136</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.00014358672</v>
+        <v>0.0006318897</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-0.0015556888</v>
+        <v>-0.00058313383</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.0007797434</v>
+        <v>-0.0012940194</v>
       </c>
     </row>
     <row r="54">
@@ -6102,91 +6562,91 @@
         <v>0.0005192644999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0001841757</v>
+        <v>-0.001011793</v>
       </c>
       <c r="J54" t="n">
         <v>-0.00011827056</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001011793</v>
+        <v>-0.0010777722</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0010777722</v>
+        <v>0.0001841757</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0006915201</v>
+        <v>0.0011357359</v>
       </c>
       <c r="N54" t="n">
         <v>8.115465600000001e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0011357359</v>
+        <v>-0.0006915201</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.00020992529</v>
+        <v>0.0007000603</v>
       </c>
       <c r="Q54" t="n">
         <v>-0.0014603767</v>
       </c>
       <c r="R54" t="n">
+        <v>-5.841925e-06</v>
+      </c>
+      <c r="S54" t="n">
         <v>0.00041245858</v>
       </c>
-      <c r="S54" t="n">
-        <v>-7.0476744e-05</v>
-      </c>
       <c r="T54" t="n">
+        <v>0.0014921715</v>
+      </c>
+      <c r="U54" t="n">
         <v>-0.0007999979</v>
       </c>
-      <c r="U54" t="n">
-        <v>-0.0011636007</v>
-      </c>
       <c r="V54" t="n">
-        <v>-5.841925e-06</v>
+        <v>-0.0011122866</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0014921715</v>
+        <v>0.00091148686</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0011061335</v>
+        <v>0.0013976077</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0007949855000000001</v>
+        <v>-0.00021325437</v>
       </c>
       <c r="Z54" t="n">
-        <v>-0.0014921686</v>
+        <v>0.00021828957</v>
       </c>
       <c r="AA54" t="n">
-        <v>-0.0013281737</v>
+        <v>-0.0004689278700000001</v>
       </c>
       <c r="AB54" t="n">
+        <v>-8.783337000000001e-06</v>
+      </c>
+      <c r="AC54" t="n">
         <v>0.00040983735</v>
       </c>
-      <c r="AC54" t="n">
-        <v>-6.759336e-05</v>
-      </c>
       <c r="AD54" t="n">
+        <v>0.0014923717</v>
+      </c>
+      <c r="AE54" t="n">
         <v>-0.0007994388</v>
       </c>
-      <c r="AE54" t="n">
-        <v>-0.0011605511</v>
-      </c>
       <c r="AF54" t="n">
-        <v>0.0011076571</v>
+        <v>-0.0011136414</v>
       </c>
       <c r="AG54" t="n">
-        <v>-8.783337000000001e-06</v>
+        <v>0.0009112216</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.0007950067</v>
+        <v>-0.00047371408</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.0014923717</v>
+        <v>0.0013990875</v>
       </c>
       <c r="AJ54" t="n">
-        <v>-0.0013307745</v>
+        <v>-0.0013657177</v>
       </c>
       <c r="AK54" t="n">
-        <v>-0.00052886683</v>
+        <v>0.00021961197</v>
       </c>
     </row>
     <row r="55">
@@ -6219,91 +6679,91 @@
         <v>-0.0008721187</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0016353697</v>
+        <v>0.0015856106</v>
       </c>
       <c r="J55" t="n">
         <v>0.0012399576</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0015856106</v>
+        <v>-0.0011942429</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0011942429</v>
+        <v>0.0016353697</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0003849635</v>
+        <v>-0.00051688205</v>
       </c>
       <c r="N55" t="n">
         <v>-0.0012644089</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.00051688205</v>
+        <v>-0.0003849635</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.0012548039</v>
+        <v>0.0006835470599999999</v>
       </c>
       <c r="Q55" t="n">
         <v>-0.0003598201</v>
       </c>
       <c r="R55" t="n">
+        <v>-0.0013250143</v>
+      </c>
+      <c r="S55" t="n">
         <v>-0.0012818687</v>
       </c>
-      <c r="S55" t="n">
-        <v>0.0015110768</v>
-      </c>
       <c r="T55" t="n">
+        <v>0.0010417756</v>
+      </c>
+      <c r="U55" t="n">
         <v>0.0006283193</v>
       </c>
-      <c r="U55" t="n">
-        <v>-8.584624999999999e-05</v>
-      </c>
       <c r="V55" t="n">
-        <v>-0.0013250143</v>
+        <v>-0.0012311712</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0010417756</v>
+        <v>-0.0011098824</v>
       </c>
       <c r="X55" t="n">
-        <v>0.000471271</v>
+        <v>-0.001320918</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0006861636</v>
+        <v>-0.0010237604</v>
       </c>
       <c r="Z55" t="n">
-        <v>-0.0009124217999999999</v>
+        <v>-0.0004182212</v>
       </c>
       <c r="AA55" t="n">
-        <v>-0.0009848375000000001</v>
+        <v>0.0007314388</v>
       </c>
       <c r="AB55" t="n">
+        <v>-0.001323784</v>
+      </c>
+      <c r="AC55" t="n">
         <v>-0.0012809836</v>
       </c>
-      <c r="AC55" t="n">
-        <v>0.0015118544</v>
-      </c>
       <c r="AD55" t="n">
+        <v>0.0010405409</v>
+      </c>
+      <c r="AE55" t="n">
         <v>0.0006302194</v>
       </c>
-      <c r="AE55" t="n">
-        <v>-8.821188000000001e-05</v>
-      </c>
       <c r="AF55" t="n">
-        <v>0.00046609936</v>
+        <v>-0.0012289296</v>
       </c>
       <c r="AG55" t="n">
-        <v>-0.001323784</v>
+        <v>-0.001106762</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.0006820617999999999</v>
+        <v>0.0007311390400000001</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.0010405409</v>
+        <v>-0.0013197258</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.0009842627000000001</v>
+        <v>1.8995275e-05</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.00026883595</v>
+        <v>-0.0004146597</v>
       </c>
     </row>
     <row r="56">
@@ -6336,91 +6796,91 @@
         <v>0.0012960949</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0004803866000000001</v>
+        <v>-0.0011807155</v>
       </c>
       <c r="J56" t="n">
         <v>0.0011486162</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0011807155</v>
+        <v>-0.0010349915</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.0010349915</v>
+        <v>0.0004803866000000001</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00023503389</v>
+        <v>-1.9683188e-05</v>
       </c>
       <c r="N56" t="n">
         <v>-0.00019430163</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.9683188e-05</v>
+        <v>0.00023503389</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.00030318904</v>
+        <v>0.0012021109</v>
       </c>
       <c r="Q56" t="n">
         <v>0.0010093235</v>
       </c>
       <c r="R56" t="n">
+        <v>0.0011665424</v>
+      </c>
+      <c r="S56" t="n">
         <v>0.0013378658</v>
       </c>
-      <c r="S56" t="n">
-        <v>0.0012481156</v>
-      </c>
       <c r="T56" t="n">
+        <v>0.0014704383</v>
+      </c>
+      <c r="U56" t="n">
         <v>-0.0013138853</v>
       </c>
-      <c r="U56" t="n">
-        <v>-0.0014414531</v>
-      </c>
       <c r="V56" t="n">
-        <v>0.0011665424</v>
+        <v>0.00040193598</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0014704383</v>
+        <v>0.0011244906</v>
       </c>
       <c r="X56" t="n">
-        <v>-0.0006127475</v>
+        <v>0.0007743866000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.00050558837</v>
+        <v>-0.00010141172</v>
       </c>
       <c r="Z56" t="n">
-        <v>-0.0013785467</v>
+        <v>-0.00045431528</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.00046017277</v>
+        <v>0.0016417142</v>
       </c>
       <c r="AB56" t="n">
+        <v>0.0011644224</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0.0013393847</v>
       </c>
-      <c r="AC56" t="n">
-        <v>0.0012468705</v>
-      </c>
       <c r="AD56" t="n">
+        <v>0.0014711067</v>
+      </c>
+      <c r="AE56" t="n">
         <v>-0.0013116535</v>
       </c>
-      <c r="AE56" t="n">
-        <v>-0.0014444197</v>
-      </c>
       <c r="AF56" t="n">
-        <v>-0.0006138755</v>
+        <v>0.00040089915</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.0011644224</v>
+        <v>0.0011265915</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.0005028659400000001</v>
+        <v>0.001640219</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.0014711067</v>
+        <v>0.0007754969000000001</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.00046036404</v>
+        <v>0.00069826125</v>
       </c>
       <c r="AK56" t="n">
-        <v>-3.908949e-05</v>
+        <v>-0.00045215135</v>
       </c>
     </row>
     <row r="57">
@@ -6453,91 +6913,91 @@
         <v>0.00024261337</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.0006442845</v>
+        <v>-0.0006293883</v>
       </c>
       <c r="J57" t="n">
         <v>-0.00031401677</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0006293883</v>
+        <v>-0.00069608167</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.00069608167</v>
+        <v>-0.0006442845</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00017351727</v>
+        <v>-0.00022491794</v>
       </c>
       <c r="N57" t="n">
         <v>-0.0008649227000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.00022491794</v>
+        <v>0.00017351727</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.0011548698</v>
+        <v>-0.00073466497</v>
       </c>
       <c r="Q57" t="n">
         <v>0.0005229354</v>
       </c>
       <c r="R57" t="n">
+        <v>-0.001509801</v>
+      </c>
+      <c r="S57" t="n">
         <v>-0.0011555528</v>
       </c>
-      <c r="S57" t="n">
-        <v>0.0004199907</v>
-      </c>
       <c r="T57" t="n">
+        <v>-0.0009529239</v>
+      </c>
+      <c r="U57" t="n">
         <v>-0.0015052395</v>
       </c>
-      <c r="U57" t="n">
-        <v>0.00051429437</v>
-      </c>
       <c r="V57" t="n">
-        <v>-0.001509801</v>
+        <v>0.0014368845</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.0009529239</v>
+        <v>0.00048975146</v>
       </c>
       <c r="X57" t="n">
-        <v>0.000112173184</v>
+        <v>-0.00025060456</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.00043711462</v>
+        <v>-0.00021051848</v>
       </c>
       <c r="Z57" t="n">
-        <v>-0.0008169063400000001</v>
+        <v>-0.0014839827</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.00084345235</v>
+        <v>-0.0011830367</v>
       </c>
       <c r="AB57" t="n">
+        <v>-0.0015102348</v>
+      </c>
+      <c r="AC57" t="n">
         <v>-0.0011549984</v>
       </c>
-      <c r="AC57" t="n">
-        <v>0.00041955215</v>
-      </c>
       <c r="AD57" t="n">
+        <v>-0.00094908103</v>
+      </c>
+      <c r="AE57" t="n">
         <v>-0.0015060785</v>
       </c>
-      <c r="AE57" t="n">
-        <v>0.0005156674</v>
-      </c>
       <c r="AF57" t="n">
-        <v>0.00011100442</v>
+        <v>0.0014350784</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.0015102348</v>
+        <v>0.0004915033999999999</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.0004389025</v>
+        <v>-0.0011851991</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.00094908103</v>
+        <v>-0.0002511168</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.0008433085</v>
+        <v>-0.0009179728</v>
       </c>
       <c r="AK57" t="n">
-        <v>-0.0002665425</v>
+        <v>-0.001482863</v>
       </c>
     </row>
     <row r="58">
@@ -6570,91 +7030,91 @@
         <v>-0.00012690874</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.0009762788000000001</v>
+        <v>0.00043869973</v>
       </c>
       <c r="J58" t="n">
         <v>0.00044472373</v>
       </c>
       <c r="K58" t="n">
-        <v>0.00043869973</v>
+        <v>-0.0004422550299999999</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.0004422550299999999</v>
+        <v>-0.0009762788000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.0003695006</v>
+        <v>-3.7767528e-05</v>
       </c>
       <c r="N58" t="n">
         <v>0.00088995864</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.7767528e-05</v>
+        <v>-0.0003695006</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.00060696533</v>
+        <v>0.0014474448</v>
       </c>
       <c r="Q58" t="n">
         <v>0.0016161483</v>
       </c>
       <c r="R58" t="n">
+        <v>0.00035309722</v>
+      </c>
+      <c r="S58" t="n">
         <v>0.0012300436</v>
       </c>
-      <c r="S58" t="n">
-        <v>-0.0010020379</v>
-      </c>
       <c r="T58" t="n">
+        <v>0.001543762</v>
+      </c>
+      <c r="U58" t="n">
         <v>0.00031733833</v>
       </c>
-      <c r="U58" t="n">
-        <v>-0.0011545651</v>
-      </c>
       <c r="V58" t="n">
-        <v>0.00035309722</v>
+        <v>0.00024528636</v>
       </c>
       <c r="W58" t="n">
-        <v>0.001543762</v>
+        <v>0.0014960543</v>
       </c>
       <c r="X58" t="n">
-        <v>-0.00076438783</v>
+        <v>-6.469169600000001e-05</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0006414801</v>
+        <v>0.00016467985</v>
       </c>
       <c r="Z58" t="n">
-        <v>-0.0005915868700000001</v>
+        <v>0.00072752417</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.0010846667</v>
+        <v>-0.0010155733</v>
       </c>
       <c r="AB58" t="n">
+        <v>0.0003569253299999999</v>
+      </c>
+      <c r="AC58" t="n">
         <v>0.0012301863</v>
       </c>
-      <c r="AC58" t="n">
-        <v>-0.0009982744000000001</v>
-      </c>
       <c r="AD58" t="n">
+        <v>0.0015308124</v>
+      </c>
+      <c r="AE58" t="n">
         <v>0.00031166562</v>
       </c>
-      <c r="AE58" t="n">
-        <v>-0.0011536009</v>
-      </c>
       <c r="AF58" t="n">
-        <v>-0.0007617436299999999</v>
+        <v>0.00025138733</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.0003569253299999999</v>
+        <v>0.0015023944</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.0006478883999999999</v>
+        <v>-0.0010211696</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.0015308124</v>
+        <v>-6.419928000000001e-05</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.0010962032</v>
+        <v>-0.0007153488</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.00094580284</v>
+        <v>0.0007391015</v>
       </c>
     </row>
     <row r="59">
@@ -6687,91 +7147,91 @@
         <v>0.00155255</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0014072717</v>
+        <v>0.0012904295</v>
       </c>
       <c r="J59" t="n">
         <v>0.001469127</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0012904295</v>
+        <v>0.00022860641</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00022860641</v>
+        <v>0.0014072717</v>
       </c>
       <c r="M59" t="n">
-        <v>0.001069515</v>
+        <v>0.0014186332</v>
       </c>
       <c r="N59" t="n">
         <v>0.0006975819000000001</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0014186332</v>
+        <v>0.001069515</v>
       </c>
       <c r="P59" t="n">
-        <v>0.00029489293</v>
+        <v>0.0006918372999999999</v>
       </c>
       <c r="Q59" t="n">
         <v>0.0011609686</v>
       </c>
       <c r="R59" t="n">
+        <v>-0.0015656803</v>
+      </c>
+      <c r="S59" t="n">
         <v>0.000781749</v>
       </c>
-      <c r="S59" t="n">
-        <v>0.0007616663400000001</v>
-      </c>
       <c r="T59" t="n">
+        <v>0.001456057</v>
+      </c>
+      <c r="U59" t="n">
         <v>-0.001618603</v>
       </c>
-      <c r="U59" t="n">
-        <v>-0.0015163309</v>
-      </c>
       <c r="V59" t="n">
-        <v>-0.0015656803</v>
+        <v>0.001156351</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001456057</v>
+        <v>0.0008557778999999999</v>
       </c>
       <c r="X59" t="n">
-        <v>0.00011990633</v>
+        <v>0.0003963481</v>
       </c>
       <c r="Y59" t="n">
-        <v>-0.00018738565</v>
+        <v>0.0008929069</v>
       </c>
       <c r="Z59" t="n">
-        <v>-0.0011100257</v>
+        <v>-0.0016483979</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.000819026</v>
+        <v>-0.0005803005</v>
       </c>
       <c r="AB59" t="n">
+        <v>-0.0015673446</v>
+      </c>
+      <c r="AC59" t="n">
         <v>0.00078324927</v>
       </c>
-      <c r="AC59" t="n">
-        <v>0.0007585559500000001</v>
-      </c>
       <c r="AD59" t="n">
+        <v>0.0014596253</v>
+      </c>
+      <c r="AE59" t="n">
         <v>-0.0016170791</v>
       </c>
-      <c r="AE59" t="n">
-        <v>-0.001520426</v>
-      </c>
       <c r="AF59" t="n">
-        <v>0.00012056644</v>
+        <v>0.0011563767</v>
       </c>
       <c r="AG59" t="n">
-        <v>-0.0015673446</v>
+        <v>0.0008533241000000001</v>
       </c>
       <c r="AH59" t="n">
-        <v>-0.0001836514</v>
+        <v>-0.00057944667</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.0014596253</v>
+        <v>0.00039822556</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.0008210092</v>
+        <v>-0.001339887</v>
       </c>
       <c r="AK59" t="n">
-        <v>-0.0005590076</v>
+        <v>-0.0016455728</v>
       </c>
     </row>
     <row r="60">
@@ -6804,91 +7264,91 @@
         <v>0.00030874353</v>
       </c>
       <c r="I60" t="n">
-        <v>0.000118451906</v>
+        <v>-0.0009828822000000001</v>
       </c>
       <c r="J60" t="n">
         <v>0.0011868443</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0009828822000000001</v>
+        <v>-0.0009580104400000001</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0009580104400000001</v>
+        <v>0.000118451906</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.00030400412</v>
+        <v>0.00081321894</v>
       </c>
       <c r="N60" t="n">
         <v>-0.0011222995</v>
       </c>
       <c r="O60" t="n">
-        <v>0.00081321894</v>
+        <v>-0.00030400412</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.0012305727</v>
+        <v>0.0014836964</v>
       </c>
       <c r="Q60" t="n">
         <v>-7.487901999999999e-05</v>
       </c>
       <c r="R60" t="n">
+        <v>0.0009555336</v>
+      </c>
+      <c r="S60" t="n">
         <v>0.0015548975</v>
       </c>
-      <c r="S60" t="n">
-        <v>0.0006970800999999999</v>
-      </c>
       <c r="T60" t="n">
+        <v>-7.693866000000001e-05</v>
+      </c>
+      <c r="U60" t="n">
         <v>-0.0014390141</v>
       </c>
-      <c r="U60" t="n">
-        <v>0.001266328</v>
-      </c>
       <c r="V60" t="n">
-        <v>0.0009555336</v>
+        <v>0.0016320975</v>
       </c>
       <c r="W60" t="n">
-        <v>-7.693866000000001e-05</v>
+        <v>0.0009217590600000001</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0009248175</v>
+        <v>0.0009933196999999999</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0014637763</v>
+        <v>0.0013263621</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0012758233</v>
+        <v>-0.0015960447</v>
       </c>
       <c r="AA60" t="n">
-        <v>-9.209417e-05</v>
+        <v>0.0015946183</v>
       </c>
       <c r="AB60" t="n">
+        <v>0.0009557844999999999</v>
+      </c>
+      <c r="AC60" t="n">
         <v>0.0015547439</v>
       </c>
-      <c r="AC60" t="n">
-        <v>0.0006988001</v>
-      </c>
       <c r="AD60" t="n">
+        <v>-7.581182e-05</v>
+      </c>
+      <c r="AE60" t="n">
         <v>-0.0014406997</v>
       </c>
-      <c r="AE60" t="n">
-        <v>0.0012673908</v>
-      </c>
       <c r="AF60" t="n">
-        <v>0.0009226222</v>
+        <v>0.0016327227</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.0009557844999999999</v>
+        <v>0.0009206599000000001</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.0014604724</v>
+        <v>0.0015896211</v>
       </c>
       <c r="AI60" t="n">
-        <v>-7.581182e-05</v>
+        <v>0.0009937856000000001</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-9.331355999999999e-05</v>
+        <v>-0.0014510993</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.00030976327</v>
+        <v>-0.0015923815</v>
       </c>
     </row>
     <row r="61">
@@ -6921,91 +7381,91 @@
         <v>0.0011606205</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.00067759695</v>
+        <v>-0.0007964592999999999</v>
       </c>
       <c r="J61" t="n">
         <v>0.0005385792</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0007964592999999999</v>
+        <v>0.0015506449</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0015506449</v>
+        <v>-0.00067759695</v>
       </c>
       <c r="M61" t="n">
-        <v>0.00021484427</v>
+        <v>-0.001027827</v>
       </c>
       <c r="N61" t="n">
         <v>0.001531773</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.001027827</v>
+        <v>0.00021484427</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.0014056615</v>
+        <v>-0.0006718458599999999</v>
       </c>
       <c r="Q61" t="n">
         <v>-0.000723696</v>
       </c>
       <c r="R61" t="n">
+        <v>0.0005811775299999999</v>
+      </c>
+      <c r="S61" t="n">
         <v>-1.4839393e-06</v>
       </c>
-      <c r="S61" t="n">
-        <v>0.0004313682</v>
-      </c>
       <c r="T61" t="n">
+        <v>0.0008709472999999999</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.0012027991</v>
       </c>
-      <c r="U61" t="n">
-        <v>-0.0014354419</v>
-      </c>
       <c r="V61" t="n">
-        <v>0.0005811775299999999</v>
+        <v>-0.0008277916999999999</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0008709472999999999</v>
+        <v>0.0007466588</v>
       </c>
       <c r="X61" t="n">
-        <v>-0.0006636369</v>
+        <v>-0.0013622339</v>
       </c>
       <c r="Y61" t="n">
-        <v>-0.0001802293</v>
+        <v>0.00021361458</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.00089568394</v>
+        <v>0.0014343205</v>
       </c>
       <c r="AA61" t="n">
-        <v>-0.0008583662599999999</v>
+        <v>-0.00097541226</v>
       </c>
       <c r="AB61" t="n">
+        <v>0.0005852912999999999</v>
+      </c>
+      <c r="AC61" t="n">
         <v>-5.083687e-06</v>
       </c>
-      <c r="AC61" t="n">
-        <v>0.0004268167</v>
-      </c>
       <c r="AD61" t="n">
+        <v>0.0008689781</v>
+      </c>
+      <c r="AE61" t="n">
         <v>0.0012071334</v>
       </c>
-      <c r="AE61" t="n">
-        <v>-0.0014336815</v>
-      </c>
       <c r="AF61" t="n">
-        <v>-0.0006661598</v>
+        <v>-0.0008249708</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.0005852912999999999</v>
+        <v>0.0007473959700000001</v>
       </c>
       <c r="AH61" t="n">
-        <v>-0.00018078326</v>
+        <v>-0.000972678</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.0008689781</v>
+        <v>-0.0013625576</v>
       </c>
       <c r="AJ61" t="n">
-        <v>-0.0008564442</v>
+        <v>0.00071559416</v>
       </c>
       <c r="AK61" t="n">
-        <v>-0.0009208667999999999</v>
+        <v>0.0014349923</v>
       </c>
     </row>
     <row r="62">
@@ -7038,91 +7498,91 @@
         <v>0.00056762825</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0004878996400000001</v>
+        <v>0.0007336174999999999</v>
       </c>
       <c r="J62" t="n">
         <v>0.0011889003</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0007336174999999999</v>
+        <v>-0.0008068992</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.0008068992</v>
+        <v>0.0004878996400000001</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0009286783</v>
+        <v>0.00038184004</v>
       </c>
       <c r="N62" t="n">
         <v>0.00030149246</v>
       </c>
       <c r="O62" t="n">
-        <v>0.00038184004</v>
+        <v>0.0009286783</v>
       </c>
       <c r="P62" t="n">
-        <v>1.1542056e-05</v>
+        <v>0.001323769</v>
       </c>
       <c r="Q62" t="n">
         <v>-0.001083431</v>
       </c>
       <c r="R62" t="n">
+        <v>0.0007698588000000001</v>
+      </c>
+      <c r="S62" t="n">
         <v>-0.001104335</v>
       </c>
-      <c r="S62" t="n">
-        <v>-0.00020576922</v>
-      </c>
       <c r="T62" t="n">
+        <v>0.0004557472</v>
+      </c>
+      <c r="U62" t="n">
         <v>-0.0003878268</v>
       </c>
-      <c r="U62" t="n">
-        <v>-0.0011824698</v>
-      </c>
       <c r="V62" t="n">
-        <v>0.0007698588000000001</v>
+        <v>0.0012678314</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0004557472</v>
+        <v>0.0002930029</v>
       </c>
       <c r="X62" t="n">
-        <v>-4.9644383e-05</v>
+        <v>-0.0008911399000000001</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.00016306755</v>
+        <v>-0.0006571082000000001</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.0015153957</v>
+        <v>0.0004538142</v>
       </c>
       <c r="AA62" t="n">
-        <v>-0.00037805105</v>
+        <v>0.0012639824</v>
       </c>
       <c r="AB62" t="n">
+        <v>0.0007704185000000001</v>
+      </c>
+      <c r="AC62" t="n">
         <v>-0.0011023239</v>
       </c>
-      <c r="AC62" t="n">
-        <v>-0.00020584147</v>
-      </c>
       <c r="AD62" t="n">
+        <v>0.0004541118</v>
+      </c>
+      <c r="AE62" t="n">
         <v>-0.0003857636</v>
       </c>
-      <c r="AE62" t="n">
-        <v>-0.0011831595</v>
-      </c>
       <c r="AF62" t="n">
-        <v>-5.070313e-05</v>
+        <v>0.0012680024</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.0007704185000000001</v>
+        <v>0.00029330817</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.00016361159</v>
+        <v>0.001265391</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.0004541118</v>
+        <v>-0.0008913567999999999</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-0.0003764615</v>
+        <v>0.0007557049400000001</v>
       </c>
       <c r="AK62" t="n">
-        <v>5.454508000000001e-05</v>
+        <v>0.00045385954</v>
       </c>
     </row>
     <row r="63">
@@ -7155,91 +7615,91 @@
         <v>-0.0004105842</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0004265252</v>
+        <v>0.00028036657</v>
       </c>
       <c r="J63" t="n">
         <v>-0.0013052024</v>
       </c>
       <c r="K63" t="n">
-        <v>0.00028036657</v>
+        <v>0.00028420723</v>
       </c>
       <c r="L63" t="n">
-        <v>0.00028420723</v>
+        <v>0.0004265252</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.00082527613</v>
+        <v>-0.00088382117</v>
       </c>
       <c r="N63" t="n">
         <v>-0.0012863014</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.00088382117</v>
+        <v>-0.00082527613</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.00013339212</v>
+        <v>0.0007876805000000001</v>
       </c>
       <c r="Q63" t="n">
         <v>0.0005804807</v>
       </c>
       <c r="R63" t="n">
+        <v>0.0007571704</v>
+      </c>
+      <c r="S63" t="n">
         <v>-0.0006985593</v>
       </c>
-      <c r="S63" t="n">
-        <v>0.00017257605</v>
-      </c>
       <c r="T63" t="n">
+        <v>-0.0005512829</v>
+      </c>
+      <c r="U63" t="n">
         <v>0.0016156464</v>
       </c>
-      <c r="U63" t="n">
-        <v>2.5740233e-05</v>
-      </c>
       <c r="V63" t="n">
-        <v>0.0007571704</v>
+        <v>0.00046139894</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.0005512829</v>
+        <v>-0.0005022724</v>
       </c>
       <c r="X63" t="n">
-        <v>-0.0013598091</v>
+        <v>-0.0009652947</v>
       </c>
       <c r="Y63" t="n">
-        <v>-0.0012466431</v>
+        <v>-0.00015479565</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.0010100963</v>
+        <v>-0.0013543458</v>
       </c>
       <c r="AA63" t="n">
-        <v>-0.0009050349000000001</v>
+        <v>0.00031671984</v>
       </c>
       <c r="AB63" t="n">
+        <v>0.00075731444</v>
+      </c>
+      <c r="AC63" t="n">
         <v>-0.0006958738700000001</v>
       </c>
-      <c r="AC63" t="n">
-        <v>0.00017674862</v>
-      </c>
       <c r="AD63" t="n">
+        <v>-0.0005473158999999999</v>
+      </c>
+      <c r="AE63" t="n">
         <v>0.0016145711</v>
       </c>
-      <c r="AE63" t="n">
-        <v>2.3580405e-05</v>
-      </c>
       <c r="AF63" t="n">
-        <v>-0.0013578616</v>
+        <v>0.00046280847</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.00075731444</v>
+        <v>-0.00050165964</v>
       </c>
       <c r="AH63" t="n">
-        <v>-0.001248956</v>
+        <v>0.0003180451700000001</v>
       </c>
       <c r="AI63" t="n">
-        <v>-0.0005473158999999999</v>
+        <v>-0.0009670288</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-0.00090535724</v>
+        <v>0.00083895266</v>
       </c>
       <c r="AK63" t="n">
-        <v>-0.0012361251</v>
+        <v>-0.0013528542</v>
       </c>
     </row>
     <row r="64">
@@ -7272,91 +7732,91 @@
         <v>-0.0009012094000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0010668373</v>
+        <v>-0.0014590148</v>
       </c>
       <c r="J64" t="n">
         <v>-0.0008941527000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.0014590148</v>
+        <v>0.0016605774</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0016605774</v>
+        <v>0.0010668373</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0015161608</v>
+        <v>-0.00064889557</v>
       </c>
       <c r="N64" t="n">
         <v>-0.0004553442700000001</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.00064889557</v>
+        <v>0.0015161608</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.0006252967</v>
+        <v>0.0007348932000000001</v>
       </c>
       <c r="Q64" t="n">
         <v>0.00025001157</v>
       </c>
       <c r="R64" t="n">
+        <v>0.00034676483</v>
+      </c>
+      <c r="S64" t="n">
         <v>0.00096567004</v>
       </c>
-      <c r="S64" t="n">
-        <v>0.0012135194</v>
-      </c>
       <c r="T64" t="n">
+        <v>-0.0015170077</v>
+      </c>
+      <c r="U64" t="n">
         <v>0.0004725852</v>
       </c>
-      <c r="U64" t="n">
-        <v>0.0016615681</v>
-      </c>
       <c r="V64" t="n">
-        <v>0.00034676483</v>
+        <v>-0.0013254522</v>
       </c>
       <c r="W64" t="n">
-        <v>-0.0015170077</v>
+        <v>0.0016605465</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0004906814399999999</v>
+        <v>-0.0009767298</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.00046983745</v>
+        <v>0.0013116498</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.0012859511</v>
+        <v>0.0008399174000000001</v>
       </c>
       <c r="AA64" t="n">
-        <v>-0.0013883855</v>
+        <v>-0.0014043828</v>
       </c>
       <c r="AB64" t="n">
+        <v>0.00034720477</v>
+      </c>
+      <c r="AC64" t="n">
         <v>0.0009673219</v>
       </c>
-      <c r="AC64" t="n">
-        <v>0.0012128418</v>
-      </c>
       <c r="AD64" t="n">
+        <v>-0.0015165613</v>
+      </c>
+      <c r="AE64" t="n">
         <v>0.0004724231299999999</v>
       </c>
-      <c r="AE64" t="n">
-        <v>0.0016589662</v>
-      </c>
       <c r="AF64" t="n">
-        <v>0.00049138925</v>
+        <v>-0.0013271702</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.00034720477</v>
+        <v>0.0016622425</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.000471553</v>
+        <v>-0.0014078686</v>
       </c>
       <c r="AI64" t="n">
-        <v>-0.0015165613</v>
+        <v>-0.0009794618999999999</v>
       </c>
       <c r="AJ64" t="n">
-        <v>-0.0013863826</v>
+        <v>-0.0004701542</v>
       </c>
       <c r="AK64" t="n">
-        <v>-0.0015514451</v>
+        <v>0.0008428749000000001</v>
       </c>
     </row>
     <row r="65">
@@ -7389,91 +7849,91 @@
         <v>-0.0012605671</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.00075783976</v>
+        <v>-0.0007365964999999999</v>
       </c>
       <c r="J65" t="n">
         <v>-0.00022868757</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.0007365964999999999</v>
+        <v>-0.0002031343</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.0002031343</v>
+        <v>-0.00075783976</v>
       </c>
       <c r="M65" t="n">
-        <v>0.00064539985</v>
+        <v>-0.0009854861000000001</v>
       </c>
       <c r="N65" t="n">
         <v>0.00031852644</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.0009854861000000001</v>
+        <v>0.00064539985</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0005329642</v>
+        <v>0.00054015144</v>
       </c>
       <c r="Q65" t="n">
         <v>-0.0015077177</v>
       </c>
       <c r="R65" t="n">
+        <v>0.0008207119500000001</v>
+      </c>
+      <c r="S65" t="n">
         <v>-0.0014460816</v>
       </c>
-      <c r="S65" t="n">
-        <v>0.0008960535</v>
-      </c>
       <c r="T65" t="n">
+        <v>-0.0010318373</v>
+      </c>
+      <c r="U65" t="n">
         <v>0.00033168102</v>
       </c>
-      <c r="U65" t="n">
-        <v>0.0016442563</v>
-      </c>
       <c r="V65" t="n">
-        <v>0.0008207119500000001</v>
+        <v>0.0013264912</v>
       </c>
       <c r="W65" t="n">
-        <v>-0.0010318373</v>
+        <v>0.0005392142299999999</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0003069479</v>
+        <v>-0.0006017455000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0014308228</v>
+        <v>-0.0002604606</v>
       </c>
       <c r="Z65" t="n">
-        <v>-0.0008134327</v>
+        <v>0.00029211247</v>
       </c>
       <c r="AA65" t="n">
-        <v>-0.00041914135</v>
+        <v>0.0015760651</v>
       </c>
       <c r="AB65" t="n">
+        <v>0.0008189466000000001</v>
+      </c>
+      <c r="AC65" t="n">
         <v>-0.0014470647</v>
       </c>
-      <c r="AC65" t="n">
-        <v>0.0008947123</v>
-      </c>
       <c r="AD65" t="n">
+        <v>-0.0010303558</v>
+      </c>
+      <c r="AE65" t="n">
         <v>0.00032692432</v>
       </c>
-      <c r="AE65" t="n">
-        <v>0.0016447492</v>
-      </c>
       <c r="AF65" t="n">
-        <v>0.0003065722</v>
+        <v>0.0013255546</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.0008189466000000001</v>
+        <v>0.0005393735</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.0014295619</v>
+        <v>0.0015768141</v>
       </c>
       <c r="AI65" t="n">
-        <v>-0.0010303558</v>
+        <v>-0.000599481</v>
       </c>
       <c r="AJ65" t="n">
-        <v>-0.0004189735299999999</v>
+        <v>-0.0016388196</v>
       </c>
       <c r="AK65" t="n">
-        <v>-0.0009430828</v>
+        <v>0.0002903411</v>
       </c>
     </row>
     <row r="66">
@@ -7506,91 +7966,91 @@
         <v>-0.0015416587</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.0008585863</v>
+        <v>0.0011514531</v>
       </c>
       <c r="J66" t="n">
         <v>-0.0013896675</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0011514531</v>
+        <v>0.00040472057</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00040472057</v>
+        <v>-0.0008585863</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.0009887428</v>
+        <v>-0.0012902984</v>
       </c>
       <c r="N66" t="n">
         <v>-7.370679700000001e-06</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.0012902984</v>
+        <v>-0.0009887428</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.0005385127999999999</v>
+        <v>0.0008144058</v>
       </c>
       <c r="Q66" t="n">
         <v>-9.063338e-05</v>
       </c>
       <c r="R66" t="n">
+        <v>0.0011373834</v>
+      </c>
+      <c r="S66" t="n">
         <v>0.00056813663</v>
       </c>
-      <c r="S66" t="n">
-        <v>0.0005583677</v>
-      </c>
       <c r="T66" t="n">
+        <v>0.0010136589</v>
+      </c>
+      <c r="U66" t="n">
         <v>-0.0016548624</v>
       </c>
-      <c r="U66" t="n">
-        <v>0.0015639793</v>
-      </c>
       <c r="V66" t="n">
-        <v>0.0011373834</v>
+        <v>-0.00049507874</v>
       </c>
       <c r="W66" t="n">
-        <v>0.0010136589</v>
+        <v>0.001114711</v>
       </c>
       <c r="X66" t="n">
-        <v>9.529219000000001e-05</v>
+        <v>-0.0013610654</v>
       </c>
       <c r="Y66" t="n">
-        <v>-0.0012350297</v>
+        <v>0.00019219561</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.00059235</v>
+        <v>-0.001090686</v>
       </c>
       <c r="AA66" t="n">
-        <v>-0.0016331094</v>
+        <v>-0.0011536953</v>
       </c>
       <c r="AB66" t="n">
+        <v>0.0011367324</v>
+      </c>
+      <c r="AC66" t="n">
         <v>0.0005704261</v>
       </c>
-      <c r="AC66" t="n">
-        <v>0.0005597312700000001</v>
-      </c>
       <c r="AD66" t="n">
+        <v>0.0010131674</v>
+      </c>
+      <c r="AE66" t="n">
         <v>-0.0016541218</v>
       </c>
-      <c r="AE66" t="n">
-        <v>0.0015640942</v>
-      </c>
       <c r="AF66" t="n">
-        <v>9.579425999999999e-05</v>
+        <v>-0.0004936542</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.0011367324</v>
+        <v>0.0011171198</v>
       </c>
       <c r="AH66" t="n">
-        <v>-0.0012379409</v>
+        <v>-0.0011562321</v>
       </c>
       <c r="AI66" t="n">
-        <v>0.0010131674</v>
+        <v>-0.0013609745</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-0.0016326394</v>
+        <v>-0.00084525294</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.00049222267</v>
+        <v>-0.0010925442</v>
       </c>
     </row>
     <row r="67">
@@ -7623,91 +8083,91 @@
         <v>-0.0015283882</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.0016382769</v>
+        <v>-0.00037925443</v>
       </c>
       <c r="J67" t="n">
         <v>0.0008442189</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.00037925443</v>
+        <v>0.0011923</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0011923</v>
+        <v>-0.0016382769</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0011831335</v>
+        <v>0.0010248957</v>
       </c>
       <c r="N67" t="n">
         <v>-0.00078188686</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0010248957</v>
+        <v>0.0011831335</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0011230945</v>
+        <v>0.0006901886999999999</v>
       </c>
       <c r="Q67" t="n">
         <v>-0.0016300959</v>
       </c>
       <c r="R67" t="n">
+        <v>-4.782073599999999e-06</v>
+      </c>
+      <c r="S67" t="n">
         <v>0.0016189629</v>
       </c>
-      <c r="S67" t="n">
-        <v>0.0016397766</v>
-      </c>
       <c r="T67" t="n">
+        <v>0.0015610174</v>
+      </c>
+      <c r="U67" t="n">
         <v>0.00054361805</v>
       </c>
-      <c r="U67" t="n">
-        <v>0.0008223089</v>
-      </c>
       <c r="V67" t="n">
-        <v>-4.782073599999999e-06</v>
+        <v>-0.0013092776</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0015610174</v>
+        <v>-0.001485053</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.00040521633</v>
+        <v>0.00013484037</v>
       </c>
       <c r="Y67" t="n">
-        <v>-0.0015399032</v>
+        <v>-0.000978769</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.00061645894</v>
+        <v>-0.0013293165</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.0014150268</v>
+        <v>0.0009827953</v>
       </c>
       <c r="AB67" t="n">
+        <v>-5.914036e-06</v>
+      </c>
+      <c r="AC67" t="n">
         <v>0.0016192177</v>
       </c>
-      <c r="AC67" t="n">
-        <v>0.0016391199</v>
-      </c>
       <c r="AD67" t="n">
+        <v>0.0015599118</v>
+      </c>
+      <c r="AE67" t="n">
         <v>0.0005417294</v>
       </c>
-      <c r="AE67" t="n">
-        <v>0.0008202478599999999</v>
-      </c>
       <c r="AF67" t="n">
-        <v>-0.00040741137</v>
+        <v>-0.0013087373</v>
       </c>
       <c r="AG67" t="n">
-        <v>-5.914036e-06</v>
+        <v>-0.001487116</v>
       </c>
       <c r="AH67" t="n">
-        <v>-0.0015408173</v>
+        <v>0.0009823339</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.0015599118</v>
+        <v>0.00013707351</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.0014156007</v>
+        <v>0.0008941347999999999</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.00054938503</v>
+        <v>-0.0013326464</v>
       </c>
     </row>
     <row r="68">
@@ -7746,26 +8206,66 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.00022767333</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0007811073</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0005981455000000001</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0009701388</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.00026564105</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-0.0010794599</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.00025818526</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.0013956398</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.00035087284</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>-9.602636999999999e-05</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.0002276326</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0007811358999999999</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.0005987957</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.0009726272000000001</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0.00026216343</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-0.0010780793</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>-9.491351999999999e-05</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>-0.00025870078</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.0012607541</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0003507369</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7797,91 +8297,91 @@
         <v>0.0014889716</v>
       </c>
       <c r="I69" t="n">
-        <v>9.192389999999999e-05</v>
+        <v>-0.0011177853</v>
       </c>
       <c r="J69" t="n">
         <v>0.0011664568</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.0011177853</v>
+        <v>0.0006399292</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0006399292</v>
+        <v>9.192389999999999e-05</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0012949259</v>
+        <v>0.000897052</v>
       </c>
       <c r="N69" t="n">
         <v>0.0008611137</v>
       </c>
       <c r="O69" t="n">
-        <v>0.000897052</v>
+        <v>-0.0012949259</v>
       </c>
       <c r="P69" t="n">
-        <v>0.000874766</v>
+        <v>-0.0009310318</v>
       </c>
       <c r="Q69" t="n">
         <v>0.0016039165</v>
       </c>
       <c r="R69" t="n">
+        <v>0.0011895819</v>
+      </c>
+      <c r="S69" t="n">
         <v>0.0008665814</v>
       </c>
-      <c r="S69" t="n">
-        <v>0.0014274592</v>
-      </c>
       <c r="T69" t="n">
+        <v>-0.0007589755999999999</v>
+      </c>
+      <c r="U69" t="n">
         <v>-0.0012388345</v>
       </c>
-      <c r="U69" t="n">
-        <v>-0.0011292752</v>
-      </c>
       <c r="V69" t="n">
-        <v>0.0011895819</v>
+        <v>-0.00048056504</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.0007589755999999999</v>
+        <v>0.0006594508000000001</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.00025922174</v>
+        <v>0.0001693771</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0015816184</v>
+        <v>-0.0012602672</v>
       </c>
       <c r="Z69" t="n">
-        <v>4.7325884e-05</v>
+        <v>-0.00032542794</v>
       </c>
       <c r="AA69" t="n">
-        <v>-0.0006156224400000001</v>
+        <v>0.0012807987</v>
       </c>
       <c r="AB69" t="n">
+        <v>0.0011862611</v>
+      </c>
+      <c r="AC69" t="n">
         <v>0.0008668327</v>
       </c>
-      <c r="AC69" t="n">
-        <v>0.0014295385</v>
-      </c>
       <c r="AD69" t="n">
+        <v>-0.0007591739</v>
+      </c>
+      <c r="AE69" t="n">
         <v>-0.0012416445</v>
       </c>
-      <c r="AE69" t="n">
-        <v>-0.0011272008</v>
-      </c>
       <c r="AF69" t="n">
-        <v>-0.00025780694</v>
+        <v>-0.0004810846599999999</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.0011862611</v>
+        <v>0.0006622233</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.0015852668</v>
+        <v>0.0012826433</v>
       </c>
       <c r="AI69" t="n">
-        <v>-0.0007591739</v>
+        <v>0.00016658717</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-0.00061355525</v>
+        <v>-0.0009936160999999999</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.0004364336</v>
+        <v>-0.0003234526</v>
       </c>
     </row>
     <row r="70">
@@ -7914,91 +8414,91 @@
         <v>-0.0015111709</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0014396263</v>
+        <v>0.0013874316</v>
       </c>
       <c r="J70" t="n">
         <v>-0.0006841015</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0013874316</v>
+        <v>-0.0012442482</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.0012442482</v>
+        <v>-0.0014396263</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00012487458</v>
+        <v>-0.0011624482</v>
       </c>
       <c r="N70" t="n">
         <v>-0.0008821567999999999</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.0011624482</v>
+        <v>0.00012487458</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0005097933</v>
+        <v>-0.00053314434</v>
       </c>
       <c r="Q70" t="n">
         <v>0.0010791795</v>
       </c>
       <c r="R70" t="n">
+        <v>-0.0006277528599999999</v>
+      </c>
+      <c r="S70" t="n">
         <v>0.00097380416</v>
       </c>
-      <c r="S70" t="n">
-        <v>0.001499085</v>
-      </c>
       <c r="T70" t="n">
+        <v>-0.0012082872</v>
+      </c>
+      <c r="U70" t="n">
         <v>0.0014516099</v>
       </c>
-      <c r="U70" t="n">
-        <v>-0.00074643735</v>
-      </c>
       <c r="V70" t="n">
-        <v>-0.0006277528599999999</v>
+        <v>0.00038552456</v>
       </c>
       <c r="W70" t="n">
-        <v>-0.0012082872</v>
+        <v>0.0012039279</v>
       </c>
       <c r="X70" t="n">
-        <v>-0.0016366527</v>
+        <v>0.0011346533</v>
       </c>
       <c r="Y70" t="n">
-        <v>-0.0015462836</v>
+        <v>0.0013351468</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.0012165236</v>
+        <v>0.00016442307</v>
       </c>
       <c r="AA70" t="n">
-        <v>3.344654e-05</v>
+        <v>0.0009247048</v>
       </c>
       <c r="AB70" t="n">
+        <v>-0.000626988</v>
+      </c>
+      <c r="AC70" t="n">
         <v>0.0009733512</v>
       </c>
-      <c r="AC70" t="n">
-        <v>0.00149893</v>
-      </c>
       <c r="AD70" t="n">
+        <v>-0.0012052378</v>
+      </c>
+      <c r="AE70" t="n">
         <v>0.0014495301</v>
       </c>
-      <c r="AE70" t="n">
-        <v>-0.0007453773</v>
-      </c>
       <c r="AF70" t="n">
-        <v>-0.001638026</v>
+        <v>0.00038152884</v>
       </c>
       <c r="AG70" t="n">
-        <v>-0.000626988</v>
+        <v>0.0012073889</v>
       </c>
       <c r="AH70" t="n">
-        <v>-0.0015473092</v>
+        <v>0.00092516793</v>
       </c>
       <c r="AI70" t="n">
-        <v>-0.0012052378</v>
+        <v>0.001136863</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3.454221e-05</v>
+        <v>0.0013578515</v>
       </c>
       <c r="AK70" t="n">
-        <v>9.866086499999999e-05</v>
+        <v>0.00016307374</v>
       </c>
     </row>
     <row r="71">
@@ -8031,91 +8531,91 @@
         <v>-0.00072260405</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0011355685</v>
+        <v>0.00025412027</v>
       </c>
       <c r="J71" t="n">
         <v>-0.0009825184000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>0.00025412027</v>
+        <v>0.00040418192</v>
       </c>
       <c r="L71" t="n">
-        <v>0.00040418192</v>
+        <v>0.0011355685</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0008401372999999999</v>
+        <v>0.0008577426</v>
       </c>
       <c r="N71" t="n">
         <v>-0.00038764428</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0008577426</v>
+        <v>0.0008401372999999999</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.0011328473</v>
+        <v>-0.0011615177</v>
       </c>
       <c r="Q71" t="n">
         <v>-0.0003478251</v>
       </c>
       <c r="R71" t="n">
+        <v>-0.0009926155</v>
+      </c>
+      <c r="S71" t="n">
         <v>-0.00021188967</v>
       </c>
-      <c r="S71" t="n">
-        <v>-0.00011581132</v>
-      </c>
       <c r="T71" t="n">
+        <v>-0.0014158039</v>
+      </c>
+      <c r="U71" t="n">
         <v>-0.0010665366</v>
       </c>
-      <c r="U71" t="n">
-        <v>0.0004988439</v>
-      </c>
       <c r="V71" t="n">
-        <v>-0.0009926155</v>
+        <v>-0.0008920503999999999</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.0014158039</v>
+        <v>-0.0011233891</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0016403693</v>
+        <v>0.00026123086</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.00023648236</v>
+        <v>0.0008212401299999999</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.00094084966</v>
+        <v>0.0010371595</v>
       </c>
       <c r="AA71" t="n">
-        <v>-2.5621153e-05</v>
+        <v>0.0003966768</v>
       </c>
       <c r="AB71" t="n">
+        <v>-0.0009909731000000001</v>
+      </c>
+      <c r="AC71" t="n">
         <v>-0.00021257</v>
       </c>
-      <c r="AC71" t="n">
-        <v>-0.00011640034</v>
-      </c>
       <c r="AD71" t="n">
+        <v>-0.0014184462</v>
+      </c>
+      <c r="AE71" t="n">
         <v>-0.0010691758</v>
       </c>
-      <c r="AE71" t="n">
-        <v>0.0004987946</v>
-      </c>
       <c r="AF71" t="n">
-        <v>0.0016423805</v>
+        <v>-0.0008908973</v>
       </c>
       <c r="AG71" t="n">
-        <v>-0.0009909731000000001</v>
+        <v>-0.0011242898</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.00023712486</v>
+        <v>0.00039642316</v>
       </c>
       <c r="AI71" t="n">
-        <v>-0.0014184462</v>
+        <v>0.00025737452</v>
       </c>
       <c r="AJ71" t="n">
-        <v>-2.8266459e-05</v>
+        <v>-0.0015328231</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.0009988905999999999</v>
+        <v>0.001035037</v>
       </c>
     </row>
   </sheetData>
